--- a/AAII_Financials/Quarterly/IMNM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IMNM_QTR_FIN.xlsx
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>

--- a/AAII_Financials/Quarterly/IMNM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IMNM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="92">
   <si>
     <t>IMNM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,54 +665,61 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -740,8 +747,14 @@
       <c r="K8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -769,8 +782,14 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -798,8 +817,14 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -811,37 +836,45 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F12" s="3">
         <v>1600</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>4000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>8800</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>4200</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -869,8 +902,14 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -898,8 +937,14 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -927,8 +972,14 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -937,37 +988,45 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E17" s="3">
+        <v>4100</v>
+      </c>
+      <c r="F17" s="3">
         <v>2800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>5400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>10300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>4700</v>
       </c>
-      <c r="H17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -975,28 +1034,34 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="G18" s="3">
         <v>-5400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-10300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-4700</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1008,8 +1073,10 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1020,16 +1087,16 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
-        <v>0</v>
+        <v>-5600</v>
       </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
@@ -1037,8 +1104,14 @@
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1046,28 +1119,34 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="G21" s="3">
         <v>-5000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-9700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-4400</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1078,54 +1157,66 @@
         <v>0</v>
       </c>
       <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
         <v>100</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>100</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J22" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="F23" s="3">
         <v>-8400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-5400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-10400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-4800</v>
       </c>
-      <c r="H23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1153,8 +1244,14 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1182,66 +1279,84 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="F26" s="3">
         <v>-8400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-5400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-10400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-4800</v>
       </c>
-      <c r="H26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="F27" s="3">
         <v>-8400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-5400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-10400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-4800</v>
       </c>
-      <c r="H27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1269,8 +1384,14 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1298,8 +1419,14 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1327,8 +1454,14 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1356,8 +1489,14 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1368,16 +1507,16 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
-        <v>0</v>
+        <v>5600</v>
       </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
+        <v>0</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
@@ -1385,37 +1524,49 @@
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="F33" s="3">
         <v>-8400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-5400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-10400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-4800</v>
       </c>
-      <c r="H33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1443,71 +1594,89 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="F35" s="3">
         <v>-8400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-5400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-10400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-4800</v>
       </c>
-      <c r="H35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1519,8 +1688,10 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1532,23 +1703,25 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>36300</v>
+      </c>
+      <c r="E41" s="3">
+        <v>39800</v>
+      </c>
+      <c r="F41" s="3">
         <v>6700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>9800</v>
       </c>
-      <c r="F41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1561,8 +1734,14 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1590,8 +1769,14 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1619,8 +1804,14 @@
       <c r="K43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1648,23 +1839,29 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E45" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F45" s="3">
         <v>700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>400</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1677,23 +1874,29 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>41100</v>
+      </c>
+      <c r="E46" s="3">
+        <v>42900</v>
+      </c>
+      <c r="F46" s="3">
         <v>7500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>10200</v>
       </c>
-      <c r="F46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1706,8 +1909,14 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1735,23 +1944,29 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E48" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F48" s="3">
         <v>1700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>1800</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1764,8 +1979,14 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1793,8 +2014,14 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1822,8 +2049,14 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1851,23 +2084,29 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>100</v>
+      </c>
+      <c r="E52" s="3">
+        <v>100</v>
+      </c>
+      <c r="F52" s="3">
         <v>2800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>200</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
       </c>
@@ -1880,8 +2119,14 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1909,23 +2154,29 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>42600</v>
+      </c>
+      <c r="E54" s="3">
+        <v>44500</v>
+      </c>
+      <c r="F54" s="3">
         <v>12000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>12200</v>
       </c>
-      <c r="F54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
       </c>
@@ -1938,8 +2189,14 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1951,8 +2208,10 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1964,23 +2223,25 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E57" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F57" s="3">
         <v>2600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>1400</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
       </c>
@@ -1993,8 +2254,14 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2002,13 +2269,13 @@
         <v>400</v>
       </c>
       <c r="E58" s="3">
+        <v>500</v>
+      </c>
+      <c r="F58" s="3">
         <v>400</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
+      <c r="G58" s="3">
+        <v>400</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
@@ -2022,23 +2289,29 @@
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F59" s="3">
         <v>2300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>900</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2051,23 +2324,29 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E60" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F60" s="3">
         <v>5400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>2800</v>
       </c>
-      <c r="F60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2080,23 +2359,29 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>100</v>
+      </c>
+      <c r="E61" s="3">
+        <v>100</v>
+      </c>
+      <c r="F61" s="3">
         <v>200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>300</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
@@ -2109,23 +2394,29 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>0</v>
+      </c>
+      <c r="E62" s="3">
+        <v>0</v>
+      </c>
+      <c r="F62" s="3">
         <v>7100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>1500</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2138,8 +2429,14 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2167,8 +2464,14 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2196,8 +2499,14 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2225,23 +2534,29 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E66" s="3">
+        <v>3200</v>
+      </c>
+      <c r="F66" s="3">
         <v>12700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>4700</v>
       </c>
-      <c r="F66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2254,8 +2569,14 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2267,8 +2588,10 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2296,8 +2619,14 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2325,23 +2654,29 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>0</v>
+      </c>
+      <c r="E70" s="3">
+        <v>0</v>
+      </c>
+      <c r="F70" s="3">
         <v>48400</v>
       </c>
-      <c r="E70" s="3">
+      <c r="G70" s="3">
         <v>48400</v>
       </c>
-      <c r="F70" s="3">
-        <v>0</v>
-      </c>
-      <c r="G70" s="3">
-        <v>0</v>
-      </c>
       <c r="H70" s="3">
         <v>0</v>
       </c>
@@ -2354,8 +2689,14 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2383,23 +2724,29 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-58300</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-54400</v>
+      </c>
+      <c r="F72" s="3">
         <v>-50300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-41900</v>
       </c>
-      <c r="F72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2412,8 +2759,14 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2441,8 +2794,14 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2470,8 +2829,14 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2499,23 +2864,29 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>37900</v>
+      </c>
+      <c r="E76" s="3">
+        <v>41300</v>
+      </c>
+      <c r="F76" s="3">
         <v>-49100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-40800</v>
       </c>
-      <c r="F76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2528,8 +2899,14 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2557,71 +2934,89 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="F81" s="3">
         <v>-8400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-5400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-10400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-4800</v>
       </c>
-      <c r="H81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2633,8 +3028,10 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2645,16 +3042,16 @@
         <v>300</v>
       </c>
       <c r="F83" s="3">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="G83" s="3">
         <v>300</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
+      <c r="H83" s="3">
+        <v>600</v>
+      </c>
+      <c r="I83" s="3">
+        <v>300</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
@@ -2662,8 +3059,14 @@
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2691,8 +3094,14 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2720,8 +3129,14 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2749,8 +3164,14 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2778,8 +3199,14 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2807,37 +3234,49 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="F89" s="3">
         <v>-2500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-3500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-9600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-4700</v>
       </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2849,28 +3288,30 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
         <v>-100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-200</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
+      <c r="I91" s="3">
+        <v>0</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>3</v>
@@ -2878,8 +3319,14 @@
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2907,8 +3354,14 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2936,28 +3389,34 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>-100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-200</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
+      <c r="I94" s="3">
+        <v>0</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
@@ -2965,8 +3424,14 @@
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2978,8 +3443,10 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3007,8 +3474,14 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3036,8 +3509,14 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3065,8 +3544,14 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3094,37 +3579,49 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>100</v>
+      </c>
+      <c r="E100" s="3">
+        <v>39100</v>
+      </c>
+      <c r="F100" s="3">
         <v>-400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>11200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>10800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>6300</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3152,33 +3649,45 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E102" s="3">
+        <v>33000</v>
+      </c>
+      <c r="F102" s="3">
         <v>-3000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>7200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>1600</v>
       </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IMNM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IMNM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="92">
   <si>
     <t>IMNM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,49 +665,49 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
-        <v>43646</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
+      <c r="J7" s="2">
+        <v>43738</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
@@ -718,8 +718,11 @@
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -753,8 +756,11 @@
       <c r="M8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -788,8 +794,11 @@
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -823,8 +832,11 @@
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -838,31 +850,32 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E12" s="3">
         <v>2000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>1800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>1600</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>4000</v>
       </c>
-      <c r="H12" s="3">
-        <v>8800</v>
-      </c>
       <c r="I12" s="3">
-        <v>4200</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>3</v>
+        <v>2400</v>
+      </c>
+      <c r="J12" s="3">
+        <v>2200</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>3</v>
@@ -873,8 +886,11 @@
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -908,8 +924,11 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -943,8 +962,11 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -978,8 +1000,11 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -990,31 +1015,32 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E17" s="3">
         <v>3900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>4100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>5400</v>
       </c>
-      <c r="H17" s="3">
-        <v>10300</v>
-      </c>
       <c r="I17" s="3">
-        <v>4700</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
+        <v>2900</v>
+      </c>
+      <c r="J17" s="3">
+        <v>2700</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
@@ -1025,8 +1051,11 @@
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1034,22 +1063,22 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="F18" s="3">
         <v>-4100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-2800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-5400</v>
       </c>
-      <c r="H18" s="3">
-        <v>-10300</v>
-      </c>
       <c r="I18" s="3">
-        <v>-4700</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
+        <v>-2900</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-2700</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
@@ -1060,8 +1089,11 @@
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1075,8 +1107,9 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1087,19 +1120,19 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>-5600</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
+      <c r="J20" s="3">
+        <v>0</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
@@ -1110,8 +1143,11 @@
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1119,22 +1155,22 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="F21" s="3">
         <v>-3800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-8200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-5000</v>
       </c>
-      <c r="H21" s="3">
-        <v>-9700</v>
-      </c>
       <c r="I21" s="3">
-        <v>-4400</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
+        <v>-2700</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-2600</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
@@ -1145,16 +1181,19 @@
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E22" s="3">
-        <v>0</v>
+      <c r="E22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
@@ -1163,10 +1202,10 @@
         <v>0</v>
       </c>
       <c r="H22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>3</v>
@@ -1180,31 +1219,34 @@
       <c r="M22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-3900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-4100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-8400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-5400</v>
       </c>
-      <c r="H23" s="3">
-        <v>-10400</v>
-      </c>
       <c r="I23" s="3">
-        <v>-4800</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
+        <v>-2900</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-2700</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
@@ -1215,8 +1257,11 @@
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1250,8 +1295,11 @@
       <c r="M24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1285,31 +1333,34 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-3900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-4100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-8400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-5400</v>
       </c>
-      <c r="H26" s="3">
-        <v>-10400</v>
-      </c>
       <c r="I26" s="3">
-        <v>-4800</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
+        <v>-2900</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-2700</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
@@ -1320,31 +1371,34 @@
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-3900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-4100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-8400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-5400</v>
       </c>
-      <c r="H27" s="3">
-        <v>-10400</v>
-      </c>
       <c r="I27" s="3">
-        <v>-4800</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
+        <v>-2900</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-2700</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
@@ -1355,8 +1409,11 @@
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1390,8 +1447,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1425,8 +1485,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1460,8 +1523,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1495,8 +1561,11 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1507,19 +1576,19 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>5600</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
+      <c r="J32" s="3">
+        <v>0</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
@@ -1530,31 +1599,34 @@
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-3900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-4100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-8400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-5400</v>
       </c>
-      <c r="H33" s="3">
-        <v>-10400</v>
-      </c>
       <c r="I33" s="3">
-        <v>-4800</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
+        <v>-2900</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-2700</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
@@ -1565,8 +1637,11 @@
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1600,31 +1675,34 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-3900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-4100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-8400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-5400</v>
       </c>
-      <c r="H35" s="3">
-        <v>-10400</v>
-      </c>
       <c r="I35" s="3">
-        <v>-4800</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
+        <v>-2900</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-2700</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
@@ -1635,36 +1713,39 @@
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
-        <v>43646</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
+      <c r="J38" s="2">
+        <v>43738</v>
       </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
@@ -1675,8 +1756,11 @@
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1690,8 +1774,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1705,26 +1790,27 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>59800</v>
+      </c>
+      <c r="E41" s="3">
         <v>36300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>39800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>6700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>9800</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1740,8 +1826,11 @@
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1775,8 +1864,11 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1810,8 +1902,11 @@
       <c r="M43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1845,26 +1940,29 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E45" s="3">
         <v>4800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>3100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>400</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1880,26 +1978,29 @@
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>62800</v>
+      </c>
+      <c r="E46" s="3">
         <v>41100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>42900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>7500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>10200</v>
       </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1915,8 +2016,11 @@
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1950,26 +2054,29 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E48" s="3">
         <v>1400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1800</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1985,8 +2092,11 @@
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2020,8 +2130,11 @@
       <c r="M49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2055,8 +2168,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2090,8 +2206,11 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2102,14 +2221,14 @@
         <v>100</v>
       </c>
       <c r="F52" s="3">
+        <v>100</v>
+      </c>
+      <c r="G52" s="3">
         <v>2800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>200</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2125,8 +2244,11 @@
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2160,26 +2282,29 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>64100</v>
+      </c>
+      <c r="E54" s="3">
         <v>42600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>44500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>12000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>12200</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2195,8 +2320,11 @@
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2210,8 +2338,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2225,26 +2354,27 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E57" s="3">
         <v>3000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1400</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2260,25 +2390,28 @@
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
         <v>400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>500</v>
-      </c>
-      <c r="F58" s="3">
-        <v>400</v>
       </c>
       <c r="G58" s="3">
         <v>400</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
+      <c r="H58" s="3">
+        <v>400</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
@@ -2295,26 +2428,29 @@
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E59" s="3">
         <v>1200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>900</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2330,26 +2466,29 @@
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E60" s="3">
         <v>4600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>5400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2800</v>
       </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2365,26 +2504,29 @@
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E61" s="3">
         <v>100</v>
       </c>
       <c r="F61" s="3">
+        <v>100</v>
+      </c>
+      <c r="G61" s="3">
         <v>200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>300</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
@@ -2400,8 +2542,11 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2412,14 +2557,14 @@
         <v>0</v>
       </c>
       <c r="F62" s="3">
+        <v>0</v>
+      </c>
+      <c r="G62" s="3">
         <v>7100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1500</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2435,8 +2580,11 @@
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2470,8 +2618,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2505,8 +2656,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2540,26 +2694,29 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E66" s="3">
         <v>4700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>12700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4700</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2575,8 +2732,11 @@
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2590,8 +2750,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2625,8 +2786,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2660,8 +2824,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2672,13 +2839,13 @@
         <v>0</v>
       </c>
       <c r="F70" s="3">
-        <v>48400</v>
+        <v>0</v>
       </c>
       <c r="G70" s="3">
         <v>48400</v>
       </c>
       <c r="H70" s="3">
-        <v>0</v>
+        <v>48400</v>
       </c>
       <c r="I70" s="3">
         <v>0</v>
@@ -2695,8 +2862,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2730,26 +2900,29 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-63500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-58300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-54400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-50300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-41900</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2765,8 +2938,11 @@
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2800,8 +2976,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2835,8 +3014,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2870,26 +3052,29 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>60600</v>
+      </c>
+      <c r="E76" s="3">
         <v>37900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>41300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-49100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-40800</v>
       </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2905,8 +3090,11 @@
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2940,36 +3128,39 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
-        <v>43646</v>
-      </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
+      <c r="J80" s="2">
+        <v>43738</v>
       </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
@@ -2980,31 +3171,34 @@
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-3900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-4100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-8400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-5400</v>
       </c>
-      <c r="H81" s="3">
-        <v>-10400</v>
-      </c>
       <c r="I81" s="3">
-        <v>-4800</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
+        <v>-2900</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-2700</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
@@ -3015,8 +3209,11 @@
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3030,8 +3227,9 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3039,22 +3237,22 @@
         <v>200</v>
       </c>
       <c r="E83" s="3">
+        <v>200</v>
+      </c>
+      <c r="F83" s="3">
         <v>300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>300</v>
       </c>
-      <c r="H83" s="3">
-        <v>600</v>
-      </c>
       <c r="I83" s="3">
-        <v>300</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
+        <v>200</v>
+      </c>
+      <c r="J83" s="3">
+        <v>200</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
@@ -3065,8 +3263,11 @@
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3100,8 +3301,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3135,8 +3339,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3170,8 +3377,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3205,8 +3415,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3240,31 +3453,34 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="E89" s="3">
         <v>-3500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-6100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-2500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-3500</v>
       </c>
-      <c r="H89" s="3">
-        <v>-9600</v>
-      </c>
       <c r="I89" s="3">
-        <v>-4700</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
+        <v>-2600</v>
+      </c>
+      <c r="J89" s="3">
+        <v>-2400</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
@@ -3275,8 +3491,11 @@
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3290,8 +3509,9 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3302,19 +3522,19 @@
         <v>0</v>
       </c>
       <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
         <v>-100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-400</v>
       </c>
-      <c r="H91" s="3">
-        <v>-200</v>
-      </c>
       <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
+        <v>-100</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-100</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
@@ -3325,8 +3545,11 @@
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3360,8 +3583,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3395,8 +3621,11 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3407,19 +3636,19 @@
         <v>0</v>
       </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>-100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-400</v>
       </c>
-      <c r="H94" s="3">
-        <v>-200</v>
-      </c>
       <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
+        <v>-100</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-100</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
@@ -3430,8 +3659,11 @@
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3445,8 +3677,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3480,8 +3713,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3515,8 +3751,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3550,8 +3789,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3585,31 +3827,34 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>27300</v>
+      </c>
+      <c r="E100" s="3">
         <v>100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>39100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>11200</v>
       </c>
-      <c r="H100" s="3">
-        <v>10800</v>
-      </c>
       <c r="I100" s="3">
-        <v>6300</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
+        <v>4400</v>
+      </c>
+      <c r="J100" s="3">
+        <v>0</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
@@ -3620,8 +3865,11 @@
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3655,31 +3903,34 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>23600</v>
+      </c>
+      <c r="E102" s="3">
         <v>-3500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>33000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-3000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>7200</v>
       </c>
-      <c r="H102" s="3">
-        <v>900</v>
-      </c>
       <c r="I102" s="3">
-        <v>1600</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
+        <v>1800</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-2500</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>3</v>
@@ -3688,6 +3939,9 @@
         <v>3</v>
       </c>
       <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IMNM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IMNM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="92">
   <si>
     <t>IMNM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,53 +665,54 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
@@ -721,8 +722,11 @@
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -759,8 +763,11 @@
       <c r="N8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -797,8 +804,11 @@
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -835,8 +845,11 @@
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -851,35 +864,36 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E12" s="3">
         <v>3200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>2000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>1800</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>1600</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>4000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>2400</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>2200</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
@@ -889,8 +903,11 @@
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -927,8 +944,11 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -965,8 +985,11 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1003,8 +1026,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1016,35 +1042,36 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E17" s="3">
         <v>5700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>3900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>4100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>5400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2700</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1054,8 +1081,11 @@
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1063,26 +1093,26 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="F18" s="3">
         <v>-3900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-4100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-2800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-5400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-2900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-2700</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1092,8 +1122,11 @@
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1108,8 +1141,9 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1117,25 +1151,25 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>-5600</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
+      <c r="K20" s="3">
+        <v>0</v>
       </c>
       <c r="L20" s="3" t="s">
         <v>3</v>
@@ -1146,8 +1180,11 @@
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1155,26 +1192,26 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="F21" s="3">
         <v>-3700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-3800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-8200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-5000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-2700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-2600</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1184,8 +1221,11 @@
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1195,8 +1235,8 @@
       <c r="E22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F22" s="3">
-        <v>0</v>
+      <c r="F22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G22" s="3">
         <v>0</v>
@@ -1207,8 +1247,8 @@
       <c r="I22" s="3">
         <v>0</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>3</v>
+      <c r="J22" s="3">
+        <v>0</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>3</v>
@@ -1222,35 +1262,38 @@
       <c r="N22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-5200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-3900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-4100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-8400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-5400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-2900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-2700</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1260,8 +1303,11 @@
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1298,8 +1344,11 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1336,35 +1385,38 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-5200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-3900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-4100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-8400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-5400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-2900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-2700</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1374,35 +1426,38 @@
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-5200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-3900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-4100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-8400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-5400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-2900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-2700</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1412,8 +1467,11 @@
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1450,8 +1508,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1488,8 +1549,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1526,8 +1590,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1564,8 +1631,11 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1573,25 +1643,25 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>5600</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
+      <c r="K32" s="3">
+        <v>0</v>
       </c>
       <c r="L32" s="3" t="s">
         <v>3</v>
@@ -1602,35 +1672,38 @@
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-5200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-3900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-4100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-8400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-5400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-2900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-2700</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1640,8 +1713,11 @@
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1678,35 +1754,38 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-5200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-3900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-4100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-8400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-5400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-2900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-2700</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1716,40 +1795,43 @@
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1759,8 +1841,11 @@
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1775,8 +1860,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1791,29 +1877,30 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>56200</v>
+      </c>
+      <c r="E41" s="3">
         <v>59800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>36300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>39800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>6700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>9800</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1829,8 +1916,11 @@
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1867,8 +1957,11 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1905,8 +1998,11 @@
       <c r="N43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1943,29 +2039,32 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E45" s="3">
         <v>3000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>4800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>3100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>400</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1981,29 +2080,32 @@
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>61200</v>
+      </c>
+      <c r="E46" s="3">
         <v>62800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>41100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>42900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>7500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>10200</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2019,8 +2121,11 @@
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2057,29 +2162,32 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E48" s="3">
         <v>1200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1800</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2095,8 +2203,11 @@
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2133,8 +2244,11 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2171,8 +2285,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2209,13 +2326,16 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="E52" s="3">
         <v>100</v>
@@ -2224,14 +2344,14 @@
         <v>100</v>
       </c>
       <c r="G52" s="3">
+        <v>100</v>
+      </c>
+      <c r="H52" s="3">
         <v>2800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>200</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2247,8 +2367,11 @@
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2285,29 +2408,32 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>62600</v>
+      </c>
+      <c r="E54" s="3">
         <v>64100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>42600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>44500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>12000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>12200</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2323,8 +2449,11 @@
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2339,8 +2468,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2355,29 +2485,30 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E57" s="3">
         <v>1800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1400</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2393,8 +2524,11 @@
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2402,19 +2536,19 @@
         <v>0</v>
       </c>
       <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
         <v>400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>500</v>
-      </c>
-      <c r="G58" s="3">
-        <v>400</v>
       </c>
       <c r="H58" s="3">
         <v>400</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
+      <c r="I58" s="3">
+        <v>400</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
@@ -2431,29 +2565,32 @@
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E59" s="3">
         <v>1700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>900</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2469,29 +2606,32 @@
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E60" s="3">
         <v>3500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>4600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>5400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2800</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2507,8 +2647,11 @@
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2516,20 +2659,20 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F61" s="3">
         <v>100</v>
       </c>
       <c r="G61" s="3">
+        <v>100</v>
+      </c>
+      <c r="H61" s="3">
         <v>200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>300</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -2545,8 +2688,11 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2560,14 +2706,14 @@
         <v>0</v>
       </c>
       <c r="G62" s="3">
+        <v>0</v>
+      </c>
+      <c r="H62" s="3">
         <v>7100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1500</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2583,8 +2729,11 @@
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2621,8 +2770,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2659,8 +2811,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2697,29 +2852,32 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E66" s="3">
         <v>3500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>12700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4700</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2735,8 +2893,11 @@
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2751,8 +2912,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2789,8 +2951,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2827,8 +2992,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2842,13 +3010,13 @@
         <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>48400</v>
+        <v>0</v>
       </c>
       <c r="H70" s="3">
         <v>48400</v>
       </c>
       <c r="I70" s="3">
-        <v>0</v>
+        <v>48400</v>
       </c>
       <c r="J70" s="3">
         <v>0</v>
@@ -2865,8 +3033,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2903,29 +3074,32 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-71300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-63500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-58300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-54400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-50300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-41900</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2941,8 +3115,11 @@
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2979,8 +3156,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3017,8 +3197,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3055,29 +3238,32 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>54800</v>
+      </c>
+      <c r="E76" s="3">
         <v>60600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>37900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>41300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-49100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-40800</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3093,8 +3279,11 @@
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3131,40 +3320,43 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3174,35 +3366,38 @@
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-5200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-3900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-4100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-8400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-5400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-2900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-2700</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3212,8 +3407,11 @@
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3228,34 +3426,35 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E83" s="3">
         <v>200</v>
       </c>
       <c r="F83" s="3">
+        <v>200</v>
+      </c>
+      <c r="G83" s="3">
         <v>300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>300</v>
-      </c>
-      <c r="I83" s="3">
-        <v>200</v>
       </c>
       <c r="J83" s="3">
         <v>200</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
+      <c r="K83" s="3">
+        <v>200</v>
       </c>
       <c r="L83" s="3" t="s">
         <v>3</v>
@@ -3266,8 +3465,11 @@
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3304,8 +3506,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3342,8 +3547,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3380,8 +3588,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3418,8 +3629,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3456,35 +3670,38 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-3700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-3500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-6100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-2500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-3500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-2600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-2400</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3494,8 +3711,11 @@
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3510,8 +3730,9 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3525,19 +3746,19 @@
         <v>0</v>
       </c>
       <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
         <v>-100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-400</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-100</v>
       </c>
       <c r="J91" s="3">
         <v>-100</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
+      <c r="K91" s="3">
+        <v>-100</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>3</v>
@@ -3548,8 +3769,11 @@
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3586,8 +3810,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3624,8 +3851,11 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3639,19 +3869,19 @@
         <v>0</v>
       </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>-100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-400</v>
-      </c>
-      <c r="I94" s="3">
-        <v>-100</v>
       </c>
       <c r="J94" s="3">
         <v>-100</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
+      <c r="K94" s="3">
+        <v>-100</v>
       </c>
       <c r="L94" s="3" t="s">
         <v>3</v>
@@ -3662,8 +3892,11 @@
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3678,8 +3911,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3716,8 +3950,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3754,8 +3991,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3792,8 +4032,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3830,34 +4073,37 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>600</v>
+      </c>
+      <c r="E100" s="3">
         <v>27300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>39100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>11200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>4400</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
+      <c r="K100" s="3">
+        <v>0</v>
       </c>
       <c r="L100" s="3" t="s">
         <v>3</v>
@@ -3868,8 +4114,11 @@
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3906,35 +4155,38 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="E102" s="3">
         <v>23600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-3500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>33000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-3000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>7200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-2500</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3942,6 +4194,9 @@
         <v>3</v>
       </c>
       <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IMNM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IMNM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="92">
   <si>
     <t>IMNM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,68 +665,75 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -766,8 +773,14 @@
       <c r="O8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -807,8 +820,14 @@
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -848,8 +867,14 @@
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -865,49 +890,57 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E12" s="3">
+        <v>4400</v>
+      </c>
+      <c r="F12" s="3">
         <v>4500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>3200</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>2000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>1800</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>1600</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>4000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>2400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>2200</v>
       </c>
-      <c r="L12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -947,8 +980,14 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -988,8 +1027,14 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1029,8 +1074,14 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1043,49 +1094,57 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>11700</v>
+      </c>
+      <c r="E17" s="3">
+        <v>7800</v>
+      </c>
+      <c r="F17" s="3">
         <v>7700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>5700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>3900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>4100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>2800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>5400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>2900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>2700</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1093,40 +1152,46 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="G18" s="3">
         <v>-5700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-3900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-4100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-2800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-5400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-2900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-2700</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1142,8 +1207,10 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1151,31 +1218,31 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>500</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>-5600</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
+        <v>0</v>
       </c>
       <c r="N20" s="3" t="s">
         <v>3</v>
@@ -1183,8 +1250,14 @@
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1192,40 +1265,46 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="G21" s="3">
         <v>-5100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-3700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-3800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-8200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-5000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-2700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-2600</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1238,11 +1317,11 @@
       <c r="F22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
+      <c r="G22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I22" s="3">
         <v>0</v>
@@ -1250,11 +1329,11 @@
       <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>3</v>
+      <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
+        <v>0</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>3</v>
@@ -1265,49 +1344,61 @@
       <c r="O22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="F23" s="3">
         <v>-7700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-5200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-3900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-4100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-8400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-5400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-2900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-2700</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1347,8 +1438,14 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1388,90 +1485,108 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="F26" s="3">
         <v>-7700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-5200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-3900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-4100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-8400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-5400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-2900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-2700</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="F27" s="3">
         <v>-7700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-5200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-3900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-4100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-8400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-5400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-2900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-2700</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1511,8 +1626,14 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1552,8 +1673,14 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1593,8 +1720,14 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1634,8 +1767,14 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1643,31 +1782,31 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-500</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>5600</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
+        <v>0</v>
       </c>
       <c r="N32" s="3" t="s">
         <v>3</v>
@@ -1675,49 +1814,61 @@
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="F33" s="3">
         <v>-7700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-5200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-3900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-4100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-8400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-5400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-2900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-2700</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1757,95 +1908,113 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="F35" s="3">
         <v>-7700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-5200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-3900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-4100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-8400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-5400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-2900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-2700</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1861,8 +2030,10 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1878,35 +2049,37 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>42900</v>
+      </c>
+      <c r="E41" s="3">
+        <v>49200</v>
+      </c>
+      <c r="F41" s="3">
         <v>56200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>59800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>36300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>39800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>6700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>9800</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1919,8 +2092,14 @@
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1960,8 +2139,14 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2001,8 +2186,14 @@
       <c r="O43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2042,35 +2233,41 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E45" s="3">
+        <v>7400</v>
+      </c>
+      <c r="F45" s="3">
         <v>4900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>3000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>4800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>3100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>400</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2083,35 +2280,41 @@
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>46300</v>
+      </c>
+      <c r="E46" s="3">
+        <v>56600</v>
+      </c>
+      <c r="F46" s="3">
         <v>61200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>62800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>41100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>42900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>7500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>10200</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2124,8 +2327,14 @@
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2165,35 +2374,41 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>800</v>
+      </c>
+      <c r="E48" s="3">
+        <v>900</v>
+      </c>
+      <c r="F48" s="3">
         <v>1000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>1200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>1400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>1500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>1700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>1800</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2206,8 +2421,14 @@
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2247,8 +2468,14 @@
       <c r="O49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2288,8 +2515,14 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2329,35 +2562,41 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>500</v>
+      </c>
+      <c r="E52" s="3">
         <v>400</v>
       </c>
-      <c r="E52" s="3">
-        <v>100</v>
-      </c>
       <c r="F52" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="G52" s="3">
         <v>100</v>
       </c>
       <c r="H52" s="3">
+        <v>100</v>
+      </c>
+      <c r="I52" s="3">
+        <v>100</v>
+      </c>
+      <c r="J52" s="3">
         <v>2800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>200</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2370,8 +2609,14 @@
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2411,35 +2656,41 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>47700</v>
+      </c>
+      <c r="E54" s="3">
+        <v>57900</v>
+      </c>
+      <c r="F54" s="3">
         <v>62600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>64100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>42600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>44500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>12000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>12200</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2452,8 +2703,14 @@
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2469,8 +2726,10 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2486,35 +2745,37 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E57" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F57" s="3">
         <v>3300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>1800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>3000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>1200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>2600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>1400</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2527,34 +2788,40 @@
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>0</v>
+      <c r="D58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E58" s="3">
         <v>0</v>
       </c>
       <c r="F58" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G58" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="H58" s="3">
         <v>400</v>
       </c>
       <c r="I58" s="3">
+        <v>500</v>
+      </c>
+      <c r="J58" s="3">
         <v>400</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
+      <c r="K58" s="3">
+        <v>400</v>
       </c>
       <c r="L58" s="3" t="s">
         <v>3</v>
@@ -2568,35 +2835,41 @@
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E59" s="3">
+        <v>6700</v>
+      </c>
+      <c r="F59" s="3">
         <v>4500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>1700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>1200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>1400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>2300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>900</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2609,35 +2882,41 @@
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E60" s="3">
+        <v>9700</v>
+      </c>
+      <c r="F60" s="3">
         <v>7800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>3500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>4600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>3000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>5400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>2800</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2650,8 +2929,14 @@
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2662,23 +2947,23 @@
         <v>0</v>
       </c>
       <c r="F61" s="3">
+        <v>0</v>
+      </c>
+      <c r="G61" s="3">
+        <v>0</v>
+      </c>
+      <c r="H61" s="3">
         <v>100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>300</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -2691,13 +2976,19 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E62" s="3">
         <v>0</v>
@@ -2709,17 +3000,17 @@
         <v>0</v>
       </c>
       <c r="H62" s="3">
+        <v>0</v>
+      </c>
+      <c r="I62" s="3">
+        <v>0</v>
+      </c>
+      <c r="J62" s="3">
         <v>7100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>1500</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2732,8 +3023,14 @@
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2773,8 +3070,14 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2814,8 +3117,14 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2855,35 +3164,41 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>9900</v>
+      </c>
+      <c r="E66" s="3">
+        <v>9700</v>
+      </c>
+      <c r="F66" s="3">
         <v>7800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>3500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>4700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>3200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>12700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>4700</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2896,8 +3211,14 @@
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2913,8 +3234,10 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2954,8 +3277,14 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2995,8 +3324,14 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3013,17 +3348,17 @@
         <v>0</v>
       </c>
       <c r="H70" s="3">
+        <v>0</v>
+      </c>
+      <c r="I70" s="3">
+        <v>0</v>
+      </c>
+      <c r="J70" s="3">
         <v>48400</v>
       </c>
-      <c r="I70" s="3">
+      <c r="K70" s="3">
         <v>48400</v>
       </c>
-      <c r="J70" s="3">
-        <v>0</v>
-      </c>
-      <c r="K70" s="3">
-        <v>0</v>
-      </c>
       <c r="L70" s="3">
         <v>0</v>
       </c>
@@ -3036,8 +3371,14 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3077,35 +3418,41 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-90800</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-79100</v>
+      </c>
+      <c r="F72" s="3">
         <v>-71300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-63500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-58300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-54400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-50300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-41900</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3118,8 +3465,14 @@
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3159,8 +3512,14 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3200,8 +3559,14 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3241,35 +3606,41 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>37900</v>
+      </c>
+      <c r="E76" s="3">
+        <v>48200</v>
+      </c>
+      <c r="F76" s="3">
         <v>54800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>60600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>37900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>41300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-49100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-40800</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3282,8 +3653,14 @@
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3323,95 +3700,113 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="F81" s="3">
         <v>-7700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-5200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-3900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-4100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-8400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-5400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-2900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-2700</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3427,22 +3822,24 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>100</v>
+      </c>
+      <c r="E83" s="3">
+        <v>100</v>
+      </c>
+      <c r="F83" s="3">
         <v>300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>200</v>
-      </c>
-      <c r="F83" s="3">
-        <v>200</v>
-      </c>
-      <c r="G83" s="3">
-        <v>300</v>
       </c>
       <c r="H83" s="3">
         <v>200</v>
@@ -3454,13 +3851,13 @@
         <v>200</v>
       </c>
       <c r="K83" s="3">
+        <v>300</v>
+      </c>
+      <c r="L83" s="3">
         <v>200</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M83" s="3" t="s">
-        <v>3</v>
+      <c r="M83" s="3">
+        <v>200</v>
       </c>
       <c r="N83" s="3" t="s">
         <v>3</v>
@@ -3468,8 +3865,14 @@
       <c r="O83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3509,8 +3912,14 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3550,8 +3959,14 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3591,8 +4006,14 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3632,8 +4053,14 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3673,49 +4100,61 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="F89" s="3">
         <v>-4100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-3700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-3500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-6100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-2500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-3500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-2600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-2400</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3731,8 +4170,10 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3749,22 +4190,22 @@
         <v>0</v>
       </c>
       <c r="H91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I91" s="3">
-        <v>-400</v>
+        <v>0</v>
       </c>
       <c r="J91" s="3">
         <v>-100</v>
       </c>
       <c r="K91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="L91" s="3">
         <v>-100</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M91" s="3" t="s">
-        <v>3</v>
+      <c r="M91" s="3">
+        <v>-100</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>3</v>
@@ -3772,8 +4213,14 @@
       <c r="O91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3813,8 +4260,14 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3854,8 +4307,14 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3872,22 +4331,22 @@
         <v>0</v>
       </c>
       <c r="H94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I94" s="3">
-        <v>-400</v>
+        <v>0</v>
       </c>
       <c r="J94" s="3">
         <v>-100</v>
       </c>
       <c r="K94" s="3">
+        <v>-400</v>
+      </c>
+      <c r="L94" s="3">
         <v>-100</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M94" s="3" t="s">
-        <v>3</v>
+      <c r="M94" s="3">
+        <v>-100</v>
       </c>
       <c r="N94" s="3" t="s">
         <v>3</v>
@@ -3895,8 +4354,14 @@
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3912,8 +4377,10 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3953,8 +4420,14 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3994,8 +4467,14 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4035,8 +4514,14 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4076,40 +4561,46 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F100" s="3">
         <v>600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>27300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>39100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>11200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>4400</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
+      <c r="M100" s="3">
+        <v>0</v>
       </c>
       <c r="N100" s="3" t="s">
         <v>3</v>
@@ -4117,8 +4608,14 @@
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4158,45 +4655,57 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="F102" s="3">
         <v>-3600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>23600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-3500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>33000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-3000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>7200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>1800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-2500</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IMNM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IMNM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="92">
   <si>
     <t>IMNM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,64 +665,65 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
@@ -732,8 +733,11 @@
       <c r="Q7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -779,8 +783,11 @@
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -826,8 +833,11 @@
       <c r="Q9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -873,8 +883,11 @@
       <c r="Q10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -892,44 +905,45 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E12" s="3">
         <v>8100</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>4400</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>4500</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>3200</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>2000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>1800</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>1600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>4000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>2400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>2200</v>
       </c>
-      <c r="N12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
@@ -939,8 +953,11 @@
       <c r="Q12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -986,8 +1003,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1033,8 +1053,11 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1080,8 +1103,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1096,44 +1122,45 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E17" s="3">
         <v>11700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>7800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>7700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>5700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>4100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2700</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1143,8 +1170,11 @@
       <c r="Q17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1152,35 +1182,35 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="F18" s="3">
         <v>-7800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-7700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-5700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-3900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-4100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-2800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-5400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-2900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-2700</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1190,8 +1220,11 @@
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1209,8 +1242,9 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1224,28 +1258,28 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>500</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>-5600</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
+      <c r="N20" s="3">
+        <v>0</v>
       </c>
       <c r="O20" s="3" t="s">
         <v>3</v>
@@ -1256,8 +1290,11 @@
       <c r="Q20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1265,35 +1302,35 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-11500</v>
+      </c>
+      <c r="F21" s="3">
         <v>-7700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-7400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-5100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-3700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-3800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-8200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-5000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-2700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-2600</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1303,8 +1340,11 @@
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1323,8 +1363,8 @@
       <c r="H22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I22" s="3">
-        <v>0</v>
+      <c r="I22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J22" s="3">
         <v>0</v>
@@ -1335,8 +1375,8 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>3</v>
+      <c r="M22" s="3">
+        <v>0</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>3</v>
@@ -1350,44 +1390,47 @@
       <c r="Q22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>3</v>
+      <c r="D23" s="3">
+        <v>-8900</v>
       </c>
       <c r="E23" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="F23" s="3">
         <v>-7900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-7700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-5200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-3900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-4100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-8400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-5400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-2900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-2700</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1397,8 +1440,11 @@
       <c r="Q23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1444,8 +1490,11 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1491,44 +1540,47 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>3</v>
+      <c r="D26" s="3">
+        <v>-8900</v>
       </c>
       <c r="E26" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="F26" s="3">
         <v>-7900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-7700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-5200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-3900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-4100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-8400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-5400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-2900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-2700</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1538,44 +1590,47 @@
       <c r="Q26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>3</v>
+      <c r="D27" s="3">
+        <v>-8900</v>
       </c>
       <c r="E27" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="F27" s="3">
         <v>-7900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-7700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-5200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-3900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-4100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-8400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-5400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-2900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-2700</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1585,8 +1640,11 @@
       <c r="Q27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1632,8 +1690,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1679,8 +1740,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1726,8 +1790,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1773,8 +1840,11 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1788,28 +1858,28 @@
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-500</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>5600</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
+      <c r="N32" s="3">
+        <v>0</v>
       </c>
       <c r="O32" s="3" t="s">
         <v>3</v>
@@ -1820,44 +1890,47 @@
       <c r="Q32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>3</v>
+      <c r="D33" s="3">
+        <v>-8900</v>
       </c>
       <c r="E33" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="F33" s="3">
         <v>-7900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-7700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-5200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-3900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-4100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-8400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-5400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-2900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-2700</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1867,8 +1940,11 @@
       <c r="Q33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1914,44 +1990,47 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>3</v>
+      <c r="D35" s="3">
+        <v>-8900</v>
       </c>
       <c r="E35" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="F35" s="3">
         <v>-7900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-7700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-5200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-3900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-4100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-8400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-5400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-2900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-2700</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1961,49 +2040,52 @@
       <c r="Q35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2013,8 +2095,11 @@
       <c r="Q38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2032,8 +2117,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2051,38 +2137,39 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>34600</v>
+      </c>
+      <c r="E41" s="3">
         <v>42900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>49200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>56200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>59800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>36300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>39800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>6700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>9800</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2098,8 +2185,11 @@
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2145,31 +2235,34 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3">
-        <v>0</v>
+      <c r="D43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E43" s="3">
-        <v>0</v>
-      </c>
-      <c r="F43" s="3">
-        <v>0</v>
-      </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
-      <c r="J43" s="3">
-        <v>0</v>
+        <v>800</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K43" s="3">
         <v>0</v>
@@ -2192,8 +2285,11 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2239,38 +2335,41 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>3400</v>
+        <v>2900</v>
       </c>
       <c r="E45" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F45" s="3">
         <v>7400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>4900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>3000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>4800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>3100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>400</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2286,38 +2385,41 @@
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>37600</v>
+      </c>
+      <c r="E46" s="3">
         <v>46300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>56600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>61200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>62800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>41100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>42900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>7500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>10200</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2333,8 +2435,11 @@
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2380,38 +2485,41 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="E48" s="3">
         <v>900</v>
       </c>
       <c r="F48" s="3">
+        <v>900</v>
+      </c>
+      <c r="G48" s="3">
         <v>1000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1800</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2427,8 +2535,11 @@
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2474,8 +2585,11 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2521,8 +2635,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2568,22 +2685,25 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>400</v>
+      </c>
+      <c r="E52" s="3">
         <v>500</v>
-      </c>
-      <c r="E52" s="3">
-        <v>400</v>
       </c>
       <c r="F52" s="3">
         <v>400</v>
       </c>
       <c r="G52" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="H52" s="3">
         <v>100</v>
@@ -2592,14 +2712,14 @@
         <v>100</v>
       </c>
       <c r="J52" s="3">
+        <v>100</v>
+      </c>
+      <c r="K52" s="3">
         <v>2800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>200</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2615,8 +2735,11 @@
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2662,38 +2785,41 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>39000</v>
+      </c>
+      <c r="E54" s="3">
         <v>47700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>57900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>62600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>64100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>42600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>44500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>12000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>12200</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2709,8 +2835,11 @@
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2728,8 +2857,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2747,38 +2877,39 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E57" s="3">
         <v>3900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1400</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2794,16 +2925,19 @@
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
+      <c r="E58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F58" s="3">
         <v>0</v>
@@ -2812,19 +2946,19 @@
         <v>0</v>
       </c>
       <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
         <v>400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>500</v>
-      </c>
-      <c r="J58" s="3">
-        <v>400</v>
       </c>
       <c r="K58" s="3">
         <v>400</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>3</v>
+      <c r="L58" s="3">
+        <v>400</v>
       </c>
       <c r="M58" s="3" t="s">
         <v>3</v>
@@ -2841,38 +2975,41 @@
       <c r="Q58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E59" s="3">
         <v>5800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>6700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>4500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>900</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2888,38 +3025,41 @@
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>9700</v>
+        <v>8600</v>
       </c>
       <c r="E60" s="3">
         <v>9700</v>
       </c>
       <c r="F60" s="3">
+        <v>9700</v>
+      </c>
+      <c r="G60" s="3">
         <v>7800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>4600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>5400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2800</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2935,8 +3075,11 @@
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2953,20 +3096,20 @@
         <v>0</v>
       </c>
       <c r="H61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I61" s="3">
         <v>100</v>
       </c>
       <c r="J61" s="3">
+        <v>100</v>
+      </c>
+      <c r="K61" s="3">
         <v>200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>300</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -2982,8 +3125,11 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2991,7 +3137,7 @@
         <v>100</v>
       </c>
       <c r="E62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F62" s="3">
         <v>0</v>
@@ -3006,14 +3152,14 @@
         <v>0</v>
       </c>
       <c r="J62" s="3">
+        <v>0</v>
+      </c>
+      <c r="K62" s="3">
         <v>7100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1500</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3029,8 +3175,11 @@
       <c r="Q62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3076,8 +3225,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3123,8 +3275,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3170,38 +3325,41 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>8700</v>
+      </c>
+      <c r="E66" s="3">
         <v>9900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>9700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>7800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>12700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4700</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3217,8 +3375,11 @@
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3236,8 +3397,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3283,8 +3445,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3330,8 +3495,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3354,13 +3522,13 @@
         <v>0</v>
       </c>
       <c r="J70" s="3">
-        <v>48400</v>
+        <v>0</v>
       </c>
       <c r="K70" s="3">
         <v>48400</v>
       </c>
       <c r="L70" s="3">
-        <v>0</v>
+        <v>48400</v>
       </c>
       <c r="M70" s="3">
         <v>0</v>
@@ -3377,8 +3545,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3424,38 +3595,41 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-99700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-90800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-79100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-71300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-63500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-58300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-54400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-50300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-41900</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3471,8 +3645,11 @@
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3518,8 +3695,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3565,8 +3745,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3612,38 +3795,41 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>30300</v>
+      </c>
+      <c r="E76" s="3">
         <v>37900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>48200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>54800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>60600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>37900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>41300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-49100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-40800</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3659,8 +3845,11 @@
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3706,49 +3895,52 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3758,44 +3950,47 @@
       <c r="Q80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>3</v>
+      <c r="D81" s="3">
+        <v>-8900</v>
       </c>
       <c r="E81" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="F81" s="3">
         <v>-7900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-7700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-5200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-3900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-4100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-8400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-5400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-2900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-2700</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3805,8 +4000,11 @@
       <c r="Q81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3824,8 +4022,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3836,31 +4035,31 @@
         <v>100</v>
       </c>
       <c r="F83" s="3">
+        <v>100</v>
+      </c>
+      <c r="G83" s="3">
         <v>300</v>
-      </c>
-      <c r="G83" s="3">
-        <v>200</v>
       </c>
       <c r="H83" s="3">
         <v>200</v>
       </c>
       <c r="I83" s="3">
+        <v>200</v>
+      </c>
+      <c r="J83" s="3">
         <v>300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>300</v>
-      </c>
-      <c r="L83" s="3">
-        <v>200</v>
       </c>
       <c r="M83" s="3">
         <v>200</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>3</v>
+      <c r="N83" s="3">
+        <v>200</v>
       </c>
       <c r="O83" s="3" t="s">
         <v>3</v>
@@ -3871,8 +4070,11 @@
       <c r="Q83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3918,8 +4120,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3965,8 +4170,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4012,8 +4220,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4059,8 +4270,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4106,44 +4320,47 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-6400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-6800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-4100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-3700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-3500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-6100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-2500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-3500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-2600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-2400</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4153,8 +4370,11 @@
       <c r="Q89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4172,13 +4392,14 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
@@ -4196,19 +4417,19 @@
         <v>0</v>
       </c>
       <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
         <v>-100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-400</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-100</v>
       </c>
       <c r="M91" s="3">
         <v>-100</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>3</v>
+      <c r="N91" s="3">
+        <v>-100</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>3</v>
@@ -4219,8 +4440,11 @@
       <c r="Q91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4266,8 +4490,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4313,13 +4540,16 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
@@ -4337,19 +4567,19 @@
         <v>0</v>
       </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>-100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-400</v>
-      </c>
-      <c r="L94" s="3">
-        <v>-100</v>
       </c>
       <c r="M94" s="3">
         <v>-100</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>3</v>
+      <c r="N94" s="3">
+        <v>-100</v>
       </c>
       <c r="O94" s="3" t="s">
         <v>3</v>
@@ -4360,8 +4590,11 @@
       <c r="Q94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4379,8 +4612,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4426,8 +4660,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4473,8 +4710,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4520,8 +4760,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4567,8 +4810,11 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4576,34 +4822,34 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>-200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>27300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>39100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>11200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>4400</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
-      <c r="N100" s="3" t="s">
-        <v>3</v>
+      <c r="N100" s="3">
+        <v>0</v>
       </c>
       <c r="O100" s="3" t="s">
         <v>3</v>
@@ -4614,8 +4860,11 @@
       <c r="Q100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4661,44 +4910,47 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-6400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-7000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-3600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>23600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-3500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>33000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-3000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>7200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-2500</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4706,6 +4958,9 @@
         <v>3</v>
       </c>
       <c r="Q102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IMNM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IMNM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="92">
   <si>
     <t>IMNM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,68 +665,69 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P7" s="2" t="s">
         <v>3</v>
       </c>
@@ -736,8 +737,11 @@
       <c r="R7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -786,8 +790,11 @@
       <c r="R8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -836,8 +843,11 @@
       <c r="R9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -886,8 +896,11 @@
       <c r="R10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -906,47 +919,48 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E12" s="3">
         <v>5700</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>8100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>4400</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>4500</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>3200</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>2000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>1800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>4000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>2400</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>2200</v>
       </c>
-      <c r="O12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P12" s="3" t="s">
         <v>3</v>
       </c>
@@ -956,8 +970,11 @@
       <c r="R12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1006,8 +1023,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1056,8 +1076,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1106,8 +1129,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1123,47 +1149,48 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E17" s="3">
         <v>8900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>11700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>7800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>7700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>5700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>4100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>5400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2700</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1173,8 +1200,11 @@
       <c r="R17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1182,38 +1212,38 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-8900</v>
+      </c>
+      <c r="F18" s="3">
         <v>-11700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-7800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-7700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-5700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-3900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-4100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-2800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-5400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-2900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-2700</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1223,8 +1253,11 @@
       <c r="R18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1243,8 +1276,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1261,28 +1295,28 @@
         <v>0</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>500</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>-5600</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>3</v>
+      <c r="O20" s="3">
+        <v>0</v>
       </c>
       <c r="P20" s="3" t="s">
         <v>3</v>
@@ -1293,8 +1327,11 @@
       <c r="R20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1302,38 +1339,38 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-8800</v>
+      </c>
+      <c r="F21" s="3">
         <v>-11500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-7700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-7400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-5100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-3700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-3800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-8200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-5000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-2700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-2600</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1343,8 +1380,11 @@
       <c r="R21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1366,8 +1406,8 @@
       <c r="I22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J22" s="3">
-        <v>0</v>
+      <c r="J22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
@@ -1378,8 +1418,8 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>3</v>
+      <c r="N22" s="3">
+        <v>0</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>3</v>
@@ -1393,47 +1433,50 @@
       <c r="R22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-8500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-8900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-11700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-7900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-7700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-5200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-3900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-4100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-8400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-5400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-2900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-2700</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1443,8 +1486,11 @@
       <c r="R23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1493,8 +1539,11 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1543,47 +1592,50 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-8500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-8900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-11700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-7900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-7700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-5200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-3900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-4100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-8400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-5400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-2900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-2700</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1593,47 +1645,50 @@
       <c r="R26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-8900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-11700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-7900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-7700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-5200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-3900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-4100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-8400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-5400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-2900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-2700</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1643,8 +1698,11 @@
       <c r="R27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1693,8 +1751,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1743,8 +1804,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1793,8 +1857,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1843,8 +1910,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1861,28 +1931,28 @@
         <v>0</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-500</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>5600</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>3</v>
+      <c r="O32" s="3">
+        <v>0</v>
       </c>
       <c r="P32" s="3" t="s">
         <v>3</v>
@@ -1893,47 +1963,50 @@
       <c r="R32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-8900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-11700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-7900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-7700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-5200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-3900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-4100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-8400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-5400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-2900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-2700</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1943,8 +2016,11 @@
       <c r="R33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1993,47 +2069,50 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-8900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-11700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-7900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-7700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-5200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-3900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-4100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-8400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-5400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-2900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-2700</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2043,52 +2122,55 @@
       <c r="R35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2098,8 +2180,11 @@
       <c r="R38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2118,8 +2203,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2138,41 +2224,42 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>27100</v>
+      </c>
+      <c r="E41" s="3">
         <v>34600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>42900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>49200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>56200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>59800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>36300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>39800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>6700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>9800</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2188,8 +2275,11 @@
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2238,20 +2328,23 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E43" s="3">
+      <c r="E43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F43" s="3">
         <v>800</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2264,8 +2357,8 @@
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K43" s="3">
-        <v>0</v>
+      <c r="K43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L43" s="3">
         <v>0</v>
@@ -2288,8 +2381,11 @@
       <c r="R43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2338,41 +2434,44 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E45" s="3">
         <v>2900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>7400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>4900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>3000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>4800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>3100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>400</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2388,41 +2487,44 @@
       <c r="R45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>29200</v>
+      </c>
+      <c r="E46" s="3">
         <v>37600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>46300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>56600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>61200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>62800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>41100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>42900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>7500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>10200</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2438,8 +2540,11 @@
       <c r="R46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2488,41 +2593,44 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>900</v>
+      </c>
+      <c r="E48" s="3">
         <v>1000</v>
-      </c>
-      <c r="E48" s="3">
-        <v>900</v>
       </c>
       <c r="F48" s="3">
         <v>900</v>
       </c>
       <c r="G48" s="3">
+        <v>900</v>
+      </c>
+      <c r="H48" s="3">
         <v>1000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1800</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2538,8 +2646,11 @@
       <c r="R48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2588,8 +2699,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2638,8 +2752,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2688,8 +2805,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2697,16 +2817,16 @@
         <v>400</v>
       </c>
       <c r="E52" s="3">
+        <v>400</v>
+      </c>
+      <c r="F52" s="3">
         <v>500</v>
-      </c>
-      <c r="F52" s="3">
-        <v>400</v>
       </c>
       <c r="G52" s="3">
         <v>400</v>
       </c>
       <c r="H52" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="I52" s="3">
         <v>100</v>
@@ -2715,14 +2835,14 @@
         <v>100</v>
       </c>
       <c r="K52" s="3">
+        <v>100</v>
+      </c>
+      <c r="L52" s="3">
         <v>2800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>200</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2738,8 +2858,11 @@
       <c r="R52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2788,41 +2911,44 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>30500</v>
+      </c>
+      <c r="E54" s="3">
         <v>39000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>47700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>57900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>62600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>64100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>42600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>44500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>12000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>12200</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2838,8 +2964,11 @@
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2858,8 +2987,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2878,41 +3008,42 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E57" s="3">
         <v>5300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1400</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2928,8 +3059,11 @@
       <c r="R57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2939,8 +3073,8 @@
       <c r="E58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
+      <c r="F58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G58" s="3">
         <v>0</v>
@@ -2949,19 +3083,19 @@
         <v>0</v>
       </c>
       <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
         <v>400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>500</v>
-      </c>
-      <c r="K58" s="3">
-        <v>400</v>
       </c>
       <c r="L58" s="3">
         <v>400</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>3</v>
+      <c r="M58" s="3">
+        <v>400</v>
       </c>
       <c r="N58" s="3" t="s">
         <v>3</v>
@@ -2978,41 +3112,44 @@
       <c r="R58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E59" s="3">
         <v>3400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>5800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>6700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>4500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>900</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3028,41 +3165,44 @@
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E60" s="3">
         <v>8600</v>
-      </c>
-      <c r="E60" s="3">
-        <v>9700</v>
       </c>
       <c r="F60" s="3">
         <v>9700</v>
       </c>
       <c r="G60" s="3">
+        <v>9700</v>
+      </c>
+      <c r="H60" s="3">
         <v>7800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>4600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>3000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>5400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2800</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3078,8 +3218,11 @@
       <c r="R60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3099,20 +3242,20 @@
         <v>0</v>
       </c>
       <c r="I61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J61" s="3">
         <v>100</v>
       </c>
       <c r="K61" s="3">
+        <v>100</v>
+      </c>
+      <c r="L61" s="3">
         <v>200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>300</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
@@ -3128,8 +3271,11 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3140,7 +3286,7 @@
         <v>100</v>
       </c>
       <c r="F62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G62" s="3">
         <v>0</v>
@@ -3155,14 +3301,14 @@
         <v>0</v>
       </c>
       <c r="K62" s="3">
+        <v>0</v>
+      </c>
+      <c r="L62" s="3">
         <v>7100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1500</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3178,8 +3324,11 @@
       <c r="R62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3228,8 +3377,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3278,8 +3430,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3328,41 +3483,44 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E66" s="3">
         <v>8700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>9900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>9700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>7800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>12700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4700</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3378,8 +3536,11 @@
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3398,8 +3559,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3448,8 +3610,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3498,8 +3663,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3525,13 +3693,13 @@
         <v>0</v>
       </c>
       <c r="K70" s="3">
-        <v>48400</v>
+        <v>0</v>
       </c>
       <c r="L70" s="3">
         <v>48400</v>
       </c>
       <c r="M70" s="3">
-        <v>0</v>
+        <v>48400</v>
       </c>
       <c r="N70" s="3">
         <v>0</v>
@@ -3548,8 +3716,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3598,41 +3769,44 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-108200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-99700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-90800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-79100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-71300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-63500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-58300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-54400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-50300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-41900</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3648,8 +3822,11 @@
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3698,8 +3875,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3748,8 +3928,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3798,41 +3981,44 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>23100</v>
+      </c>
+      <c r="E76" s="3">
         <v>30300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>37900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>48200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>54800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>60600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>37900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>41300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-49100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-40800</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3848,8 +4034,11 @@
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3898,52 +4087,55 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3953,47 +4145,50 @@
       <c r="R80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-8900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-11700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-7900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-7700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-5200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-3900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-4100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-8400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-5400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-2900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-2700</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P81" s="3" t="s">
         <v>3</v>
       </c>
@@ -4003,8 +4198,11 @@
       <c r="R81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4023,8 +4221,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4038,31 +4237,31 @@
         <v>100</v>
       </c>
       <c r="G83" s="3">
+        <v>100</v>
+      </c>
+      <c r="H83" s="3">
         <v>300</v>
-      </c>
-      <c r="H83" s="3">
-        <v>200</v>
       </c>
       <c r="I83" s="3">
         <v>200</v>
       </c>
       <c r="J83" s="3">
+        <v>200</v>
+      </c>
+      <c r="K83" s="3">
         <v>300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>300</v>
-      </c>
-      <c r="M83" s="3">
-        <v>200</v>
       </c>
       <c r="N83" s="3">
         <v>200</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>3</v>
+      <c r="O83" s="3">
+        <v>200</v>
       </c>
       <c r="P83" s="3" t="s">
         <v>3</v>
@@ -4073,8 +4272,11 @@
       <c r="R83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4123,8 +4325,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4173,8 +4378,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4223,8 +4431,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4273,8 +4484,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4323,47 +4537,50 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-8100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-6400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-6800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-4100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-3700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-3500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-6100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-2500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-3500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-2600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-2400</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4373,8 +4590,11 @@
       <c r="R89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4393,17 +4613,18 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
         <v>-200</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
       <c r="F91" s="3">
         <v>0</v>
       </c>
@@ -4420,19 +4641,19 @@
         <v>0</v>
       </c>
       <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
         <v>-100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-400</v>
-      </c>
-      <c r="M91" s="3">
-        <v>-100</v>
       </c>
       <c r="N91" s="3">
         <v>-100</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>3</v>
+      <c r="O91" s="3">
+        <v>-100</v>
       </c>
       <c r="P91" s="3" t="s">
         <v>3</v>
@@ -4443,8 +4664,11 @@
       <c r="R91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4493,8 +4717,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4543,17 +4770,20 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
         <v>-200</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
       <c r="F94" s="3">
         <v>0</v>
       </c>
@@ -4570,19 +4800,19 @@
         <v>0</v>
       </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>-100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-400</v>
-      </c>
-      <c r="M94" s="3">
-        <v>-100</v>
       </c>
       <c r="N94" s="3">
         <v>-100</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>3</v>
+      <c r="O94" s="3">
+        <v>-100</v>
       </c>
       <c r="P94" s="3" t="s">
         <v>3</v>
@@ -4593,8 +4823,11 @@
       <c r="R94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4613,8 +4846,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4663,8 +4897,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4713,8 +4950,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4763,8 +5003,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4813,8 +5056,11 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4825,34 +5071,34 @@
         <v>0</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>-200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>27300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>39100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>11200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>4400</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
-      <c r="O100" s="3" t="s">
-        <v>3</v>
+      <c r="O100" s="3">
+        <v>0</v>
       </c>
       <c r="P100" s="3" t="s">
         <v>3</v>
@@ -4863,8 +5109,11 @@
       <c r="R100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4913,47 +5162,50 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="E102" s="3">
         <v>-8200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-6400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-7000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-3600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>23600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-3500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>33000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-3000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>7200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-2500</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4961,6 +5213,9 @@
         <v>3</v>
       </c>
       <c r="R102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IMNM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IMNM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="92">
   <si>
     <t>IMNM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,106 +665,113 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="S7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="U7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
-      <c r="J8" s="3">
-        <v>0</v>
+      <c r="D8" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K8" s="3">
         <v>0</v>
@@ -793,8 +800,14 @@
       <c r="S8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -846,8 +859,14 @@
       <c r="S9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -899,8 +918,14 @@
       <c r="S10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -920,61 +945,69 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E12" s="3">
+        <v>4200</v>
+      </c>
+      <c r="F12" s="3">
         <v>5200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>5700</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>8100</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>4400</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>4500</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>3200</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>2000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>1800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>1600</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>4000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>2400</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>2200</v>
       </c>
-      <c r="P12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1026,8 +1059,14 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1079,8 +1118,14 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1132,8 +1177,14 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1150,114 +1201,128 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E17" s="3">
+        <v>7800</v>
+      </c>
+      <c r="F17" s="3">
         <v>8500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>8900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>11700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>7800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>7700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>5700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>3900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>4100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>2800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>5400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>2900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>2700</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E18" s="3">
-        <v>-8900</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-11700</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-7800</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-7700</v>
-      </c>
-      <c r="I18" s="3">
+      <c r="D18" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K18" s="3">
         <v>-5700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-3900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-4100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-2800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-5400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-2900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-2700</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1277,52 +1342,54 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3">
+      <c r="D20" s="3">
+        <v>200</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K20" s="3">
         <v>500</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>-5600</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q20" s="3" t="s">
-        <v>3</v>
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>0</v>
       </c>
       <c r="R20" s="3" t="s">
         <v>3</v>
@@ -1330,61 +1397,73 @@
       <c r="S20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E21" s="3">
-        <v>-8800</v>
-      </c>
-      <c r="F21" s="3">
-        <v>-11500</v>
-      </c>
-      <c r="G21" s="3">
-        <v>-7700</v>
-      </c>
-      <c r="H21" s="3">
-        <v>-7400</v>
-      </c>
-      <c r="I21" s="3">
+      <c r="D21" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K21" s="3">
         <v>-5100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-3700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-3800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-8200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-5000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-2700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-2600</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1409,11 +1488,11 @@
       <c r="J22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
-      <c r="L22" s="3">
-        <v>0</v>
+      <c r="K22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
@@ -1421,11 +1500,11 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P22" s="3" t="s">
-        <v>3</v>
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0</v>
       </c>
       <c r="Q22" s="3" t="s">
         <v>3</v>
@@ -1436,61 +1515,73 @@
       <c r="S22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="F23" s="3">
         <v>-8500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-8900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-11700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-7900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-7700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-5200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-3900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-4100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-8400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-5400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-2900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-2700</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1542,8 +1633,14 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1595,114 +1692,132 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="F26" s="3">
         <v>-8500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-8900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-11700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-7900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-7700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-5200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-3900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-4100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-8400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-5400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-2900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-2700</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="F27" s="3">
         <v>-9200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-8900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-11700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-7900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-7700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-5200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-3900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-4100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-8400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-5400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-2900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-2700</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1754,8 +1869,14 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1807,8 +1928,14 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1860,8 +1987,14 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1913,52 +2046,58 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3">
+      <c r="D32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K32" s="3">
         <v>-500</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>5600</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q32" s="3" t="s">
-        <v>3</v>
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>0</v>
       </c>
       <c r="R32" s="3" t="s">
         <v>3</v>
@@ -1966,61 +2105,73 @@
       <c r="S32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="F33" s="3">
         <v>-9200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-8900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-11700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-7900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-7700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-5200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-3900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-4100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-8400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-5400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-2900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-2700</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2072,119 +2223,137 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="F35" s="3">
         <v>-9200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-8900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-11700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-7900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-7700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-5200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-3900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-4100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-8400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-5400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-2900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-2700</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="S38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="U38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2204,8 +2373,10 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2225,47 +2396,49 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>44400</v>
+      </c>
+      <c r="E41" s="3">
+        <v>20300</v>
+      </c>
+      <c r="F41" s="3">
         <v>27100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>34600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>42900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>49200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>56200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>59800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>36300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>39800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>6700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>9800</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2278,8 +2451,14 @@
       <c r="S41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2331,26 +2510,32 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>3</v>
+      <c r="D43" s="3">
+        <v>800</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F43" s="3">
+      <c r="F43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H43" s="3">
         <v>800</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2360,11 +2545,11 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L43" s="3">
-        <v>0</v>
-      </c>
-      <c r="M43" s="3">
-        <v>0</v>
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N43" s="3">
         <v>0</v>
@@ -2384,8 +2569,14 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2437,47 +2628,53 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E45" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F45" s="3">
         <v>2200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>2900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>2600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>7400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>4900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>3000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>4800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>3100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>400</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2490,47 +2687,53 @@
       <c r="S45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>46500</v>
+      </c>
+      <c r="E46" s="3">
+        <v>22600</v>
+      </c>
+      <c r="F46" s="3">
         <v>29200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>37600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>46300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>56600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>61200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>62800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>41100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>42900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>7500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>10200</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2543,8 +2746,14 @@
       <c r="S46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2596,13 +2805,19 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="E48" s="3">
         <v>1000</v>
@@ -2611,32 +2826,32 @@
         <v>900</v>
       </c>
       <c r="G48" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H48" s="3">
         <v>900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
+        <v>900</v>
+      </c>
+      <c r="J48" s="3">
         <v>1000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>1200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>1400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>1500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>1700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>1800</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2649,8 +2864,14 @@
       <c r="S48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2702,8 +2923,14 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2755,8 +2982,14 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2808,8 +3041,14 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2820,35 +3059,35 @@
         <v>400</v>
       </c>
       <c r="F52" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="G52" s="3">
         <v>400</v>
       </c>
       <c r="H52" s="3">
+        <v>500</v>
+      </c>
+      <c r="I52" s="3">
         <v>400</v>
       </c>
-      <c r="I52" s="3">
-        <v>100</v>
-      </c>
       <c r="J52" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="K52" s="3">
         <v>100</v>
       </c>
       <c r="L52" s="3">
+        <v>100</v>
+      </c>
+      <c r="M52" s="3">
+        <v>100</v>
+      </c>
+      <c r="N52" s="3">
         <v>2800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>200</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2861,8 +3100,14 @@
       <c r="S52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2914,47 +3159,53 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>48100</v>
+      </c>
+      <c r="E54" s="3">
+        <v>24000</v>
+      </c>
+      <c r="F54" s="3">
         <v>30500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>39000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>47700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>57900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>62600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>64100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>42600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>44500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>12000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>12200</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2967,8 +3218,14 @@
       <c r="S54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2988,8 +3245,10 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3009,47 +3268,49 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E57" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F57" s="3">
         <v>3100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>5300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>3900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>3100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>3300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>1800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>3000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>1200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>2600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>1400</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3062,13 +3323,19 @@
       <c r="S57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>3</v>
+      <c r="D58" s="3">
+        <v>0</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>3</v>
@@ -3076,32 +3343,32 @@
       <c r="F58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3">
-        <v>0</v>
+      <c r="G58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I58" s="3">
         <v>0</v>
       </c>
       <c r="J58" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="K58" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="L58" s="3">
         <v>400</v>
       </c>
       <c r="M58" s="3">
+        <v>500</v>
+      </c>
+      <c r="N58" s="3">
         <v>400</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O58" s="3" t="s">
-        <v>3</v>
+      <c r="O58" s="3">
+        <v>400</v>
       </c>
       <c r="P58" s="3" t="s">
         <v>3</v>
@@ -3115,47 +3382,53 @@
       <c r="S58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>21500</v>
+      </c>
+      <c r="E59" s="3">
+        <v>4900</v>
+      </c>
+      <c r="F59" s="3">
         <v>4200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>3400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>5800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>6700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>4500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>1700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>1200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>1400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>2300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>900</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3168,47 +3441,53 @@
       <c r="S59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>24800</v>
+      </c>
+      <c r="E60" s="3">
+        <v>7300</v>
+      </c>
+      <c r="F60" s="3">
         <v>7400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>8600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>9700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>9700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>7800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>3500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>4600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>3000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>5400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>2800</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3221,8 +3500,14 @@
       <c r="S60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3245,23 +3530,23 @@
         <v>0</v>
       </c>
       <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
         <v>100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>300</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
@@ -3274,13 +3559,19 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>100</v>
+        <v>9400</v>
       </c>
       <c r="E62" s="3">
         <v>100</v>
@@ -3289,10 +3580,10 @@
         <v>100</v>
       </c>
       <c r="G62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I62" s="3">
         <v>0</v>
@@ -3304,17 +3595,17 @@
         <v>0</v>
       </c>
       <c r="L62" s="3">
+        <v>0</v>
+      </c>
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+      <c r="N62" s="3">
         <v>7100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>1500</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3327,8 +3618,14 @@
       <c r="S62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3380,8 +3677,14 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3433,8 +3736,14 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3486,47 +3795,53 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>34300</v>
+      </c>
+      <c r="E66" s="3">
+        <v>7400</v>
+      </c>
+      <c r="F66" s="3">
         <v>7500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>8700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>9900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>9700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>7800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>3500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>4700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>3200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>12700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>4700</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3539,8 +3854,14 @@
       <c r="S66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3560,8 +3881,10 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3613,8 +3936,14 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3666,8 +3995,14 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3696,17 +4031,17 @@
         <v>0</v>
       </c>
       <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
         <v>48400</v>
       </c>
-      <c r="M70" s="3">
+      <c r="O70" s="3">
         <v>48400</v>
       </c>
-      <c r="N70" s="3">
-        <v>0</v>
-      </c>
-      <c r="O70" s="3">
-        <v>0</v>
-      </c>
       <c r="P70" s="3">
         <v>0</v>
       </c>
@@ -3719,8 +4054,14 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3772,47 +4113,53 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-120300</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-116000</v>
+      </c>
+      <c r="F72" s="3">
         <v>-108200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-99700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-90800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-79100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-71300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-63500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-58300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-54400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-50300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-41900</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3825,8 +4172,14 @@
       <c r="S72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3878,8 +4231,14 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3931,8 +4290,14 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3984,47 +4349,53 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>13900</v>
+      </c>
+      <c r="E76" s="3">
+        <v>16700</v>
+      </c>
+      <c r="F76" s="3">
         <v>23100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>30300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>37900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>48200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>54800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>60600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>37900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>41300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-49100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-40800</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4037,8 +4408,14 @@
       <c r="S76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4090,119 +4467,137 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="S80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="U80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="F81" s="3">
         <v>-9200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-8900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-11700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-7900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-7700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-5200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-3900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-4100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-8400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-5400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-2900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-2700</v>
       </c>
-      <c r="P81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4222,8 +4617,10 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4240,16 +4637,16 @@
         <v>100</v>
       </c>
       <c r="H83" s="3">
+        <v>100</v>
+      </c>
+      <c r="I83" s="3">
+        <v>100</v>
+      </c>
+      <c r="J83" s="3">
         <v>300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>200</v>
-      </c>
-      <c r="J83" s="3">
-        <v>200</v>
-      </c>
-      <c r="K83" s="3">
-        <v>300</v>
       </c>
       <c r="L83" s="3">
         <v>200</v>
@@ -4261,13 +4658,13 @@
         <v>200</v>
       </c>
       <c r="O83" s="3">
+        <v>300</v>
+      </c>
+      <c r="P83" s="3">
         <v>200</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q83" s="3" t="s">
-        <v>3</v>
+      <c r="Q83" s="3">
+        <v>200</v>
       </c>
       <c r="R83" s="3" t="s">
         <v>3</v>
@@ -4275,8 +4672,14 @@
       <c r="S83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4328,8 +4731,14 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4381,8 +4790,14 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4434,8 +4849,14 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4487,8 +4908,14 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4540,61 +4967,73 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>24200</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="F89" s="3">
         <v>-7600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-8100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-6400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-6800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-4100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-3700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-3500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-6100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-2500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-3500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-2600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-2400</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4614,23 +5053,25 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
         <v>-200</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
       <c r="H91" s="3">
         <v>0</v>
       </c>
@@ -4644,22 +5085,22 @@
         <v>0</v>
       </c>
       <c r="L91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M91" s="3">
-        <v>-400</v>
+        <v>0</v>
       </c>
       <c r="N91" s="3">
         <v>-100</v>
       </c>
       <c r="O91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="P91" s="3">
         <v>-100</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q91" s="3" t="s">
-        <v>3</v>
+      <c r="Q91" s="3">
+        <v>-100</v>
       </c>
       <c r="R91" s="3" t="s">
         <v>3</v>
@@ -4667,8 +5108,14 @@
       <c r="S91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4720,8 +5167,14 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4773,23 +5226,29 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>-200</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
         <v>0</v>
       </c>
@@ -4803,22 +5262,22 @@
         <v>0</v>
       </c>
       <c r="L94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M94" s="3">
-        <v>-400</v>
+        <v>0</v>
       </c>
       <c r="N94" s="3">
         <v>-100</v>
       </c>
       <c r="O94" s="3">
+        <v>-400</v>
+      </c>
+      <c r="P94" s="3">
         <v>-100</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q94" s="3" t="s">
-        <v>3</v>
+      <c r="Q94" s="3">
+        <v>-100</v>
       </c>
       <c r="R94" s="3" t="s">
         <v>3</v>
@@ -4826,8 +5285,14 @@
       <c r="S94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4847,8 +5312,10 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4900,8 +5367,14 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4953,8 +5426,14 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5006,8 +5485,14 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5059,8 +5544,14 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5074,37 +5565,37 @@
         <v>0</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>-200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>27300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>39100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>11200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>4400</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
-      <c r="P100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q100" s="3" t="s">
-        <v>3</v>
+      <c r="Q100" s="3">
+        <v>0</v>
       </c>
       <c r="R100" s="3" t="s">
         <v>3</v>
@@ -5112,8 +5603,14 @@
       <c r="S100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5165,57 +5662,69 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>24100</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="F102" s="3">
         <v>-7600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-8200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-6400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-7000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-3600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>23600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-3500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>33000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-3000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>7200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>1800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-2500</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IMNM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IMNM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="92">
   <si>
     <t>IMNM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,79 +665,80 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="22" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S7" s="2" t="s">
         <v>3</v>
       </c>
@@ -747,17 +748,20 @@
       <c r="U7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E8" s="3">
         <v>2400</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F8" s="3" t="s">
         <v>3</v>
       </c>
@@ -773,8 +777,8 @@
       <c r="J8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K8" s="3">
-        <v>0</v>
+      <c r="K8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L8" s="3">
         <v>0</v>
@@ -806,8 +810,11 @@
       <c r="U8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -865,8 +872,11 @@
       <c r="U9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -924,8 +934,11 @@
       <c r="U10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -947,56 +960,57 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E12" s="3">
         <v>3900</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>4200</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>5200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>5700</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>8100</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>4400</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>4500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>3200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>2000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1800</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1600</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>4000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>2400</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>2200</v>
       </c>
-      <c r="R12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S12" s="3" t="s">
         <v>3</v>
       </c>
@@ -1006,8 +1020,11 @@
       <c r="U12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1065,8 +1082,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1124,8 +1144,11 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1183,8 +1206,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1203,56 +1229,57 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E17" s="3">
         <v>6800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>7800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>8500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>8900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>11700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>7800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>7700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>4100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>5400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2700</v>
       </c>
-      <c r="R17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1262,17 +1289,20 @@
       <c r="U17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="E18" s="3">
         <v>-4400</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1288,30 +1318,30 @@
       <c r="J18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K18" s="3">
+      <c r="K18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L18" s="3">
         <v>-5700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-3900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-4100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-2800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-5400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-2900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-2700</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1321,8 +1351,11 @@
       <c r="U18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1344,16 +1377,17 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
         <v>200</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>3</v>
+      <c r="E20" s="3">
+        <v>200</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>3</v>
@@ -1370,29 +1404,29 @@
       <c r="J20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K20" s="3">
+      <c r="K20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L20" s="3">
         <v>500</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>-5600</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
       <c r="Q20" s="3">
         <v>0</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>3</v>
+      <c r="R20" s="3">
+        <v>0</v>
       </c>
       <c r="S20" s="3" t="s">
         <v>3</v>
@@ -1403,17 +1437,20 @@
       <c r="U20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="E21" s="3">
         <v>-4200</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1429,30 +1466,30 @@
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L21" s="3">
         <v>-5100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-3700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-3800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-8200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-5000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-2600</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1462,8 +1499,11 @@
       <c r="U21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1494,8 +1534,8 @@
       <c r="L22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
+      <c r="M22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N22" s="3">
         <v>0</v>
@@ -1506,8 +1546,8 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>3</v>
+      <c r="Q22" s="3">
+        <v>0</v>
       </c>
       <c r="R22" s="3" t="s">
         <v>3</v>
@@ -1521,56 +1561,59 @@
       <c r="U22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-4300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-7800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-8500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-8900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-11700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-7900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-7700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-5200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-3900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-4100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-8400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-5400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-2900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-2700</v>
       </c>
-      <c r="R23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1580,8 +1623,11 @@
       <c r="U23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1639,8 +1685,11 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1698,56 +1747,59 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-4300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-7800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-8500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-8900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-11700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-7900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-7700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-5200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-3900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-4100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-8400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-5400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-2900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-2700</v>
       </c>
-      <c r="R26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1757,56 +1809,59 @@
       <c r="U26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-4300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-7800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-9200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-8900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-11700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-7900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-7700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-5200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-3900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-4100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-8400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-5400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-2900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-2700</v>
       </c>
-      <c r="R27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1816,8 +1871,11 @@
       <c r="U27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1875,8 +1933,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1934,8 +1995,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1993,8 +2057,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2052,16 +2119,19 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
         <v>-200</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>3</v>
+      <c r="E32" s="3">
+        <v>-200</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>3</v>
@@ -2078,29 +2148,29 @@
       <c r="J32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K32" s="3">
+      <c r="K32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L32" s="3">
         <v>-500</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>5600</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
         <v>0</v>
       </c>
       <c r="Q32" s="3">
         <v>0</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>3</v>
+      <c r="R32" s="3">
+        <v>0</v>
       </c>
       <c r="S32" s="3" t="s">
         <v>3</v>
@@ -2111,56 +2181,59 @@
       <c r="U32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-4300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-7800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-9200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-8900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-11700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-7900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-7700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-5200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-3900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-4100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-8400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-5400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-2900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-2700</v>
       </c>
-      <c r="R33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S33" s="3" t="s">
         <v>3</v>
       </c>
@@ -2170,8 +2243,11 @@
       <c r="U33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2229,56 +2305,59 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-4300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-7800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-9200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-8900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-11700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-7900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-7700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-5200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-3900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-4100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-8400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-5400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-2900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-2700</v>
       </c>
-      <c r="R35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2288,61 +2367,64 @@
       <c r="U35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2352,8 +2434,11 @@
       <c r="U38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2375,8 +2460,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2398,50 +2484,51 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>38400</v>
+      </c>
+      <c r="E41" s="3">
         <v>44400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>20300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>27100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>34600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>42900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>49200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>56200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>59800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>36300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>39800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>6700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>9800</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2457,8 +2544,11 @@
       <c r="U41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2516,29 +2606,32 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>200</v>
+      </c>
+      <c r="E43" s="3">
         <v>800</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F43" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H43" s="3">
+      <c r="H43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I43" s="3">
         <v>800</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2551,8 +2644,8 @@
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N43" s="3">
-        <v>0</v>
+      <c r="N43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O43" s="3">
         <v>0</v>
@@ -2575,8 +2668,11 @@
       <c r="U43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2634,50 +2730,53 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>900</v>
+      </c>
+      <c r="E45" s="3">
         <v>1300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>7400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>4900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>3000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>4800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>3100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>400</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2693,50 +2792,53 @@
       <c r="U45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>39500</v>
+      </c>
+      <c r="E46" s="3">
         <v>46500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>22600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>29200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>37600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>46300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>56600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>61200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>62800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>41100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>42900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>7500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>10200</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2752,8 +2854,11 @@
       <c r="U46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2811,50 +2916,53 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E48" s="3">
         <v>1100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1000</v>
-      </c>
-      <c r="H48" s="3">
-        <v>900</v>
       </c>
       <c r="I48" s="3">
         <v>900</v>
       </c>
       <c r="J48" s="3">
+        <v>900</v>
+      </c>
+      <c r="K48" s="3">
         <v>1000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1800</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2870,8 +2978,11 @@
       <c r="U48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2929,8 +3040,11 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2988,8 +3102,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3047,13 +3164,16 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E52" s="3">
         <v>400</v>
@@ -3065,16 +3185,16 @@
         <v>400</v>
       </c>
       <c r="H52" s="3">
+        <v>400</v>
+      </c>
+      <c r="I52" s="3">
         <v>500</v>
-      </c>
-      <c r="I52" s="3">
-        <v>400</v>
       </c>
       <c r="J52" s="3">
         <v>400</v>
       </c>
       <c r="K52" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="L52" s="3">
         <v>100</v>
@@ -3083,14 +3203,14 @@
         <v>100</v>
       </c>
       <c r="N52" s="3">
+        <v>100</v>
+      </c>
+      <c r="O52" s="3">
         <v>2800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>200</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3106,8 +3226,11 @@
       <c r="U52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3165,50 +3288,53 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>41400</v>
+      </c>
+      <c r="E54" s="3">
         <v>48100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>24000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>30500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>39000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>47700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>57900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>62600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>64100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>42600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>44500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>12000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>12200</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3224,8 +3350,11 @@
       <c r="U54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3247,8 +3376,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3270,50 +3400,51 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E57" s="3">
         <v>3300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>5300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>3300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1400</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3329,16 +3460,19 @@
       <c r="U57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
         <v>0</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>3</v>
+      <c r="E58" s="3">
+        <v>0</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>3</v>
@@ -3349,8 +3483,8 @@
       <c r="H58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I58" s="3">
-        <v>0</v>
+      <c r="I58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J58" s="3">
         <v>0</v>
@@ -3359,19 +3493,19 @@
         <v>0</v>
       </c>
       <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
         <v>400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>500</v>
-      </c>
-      <c r="N58" s="3">
-        <v>400</v>
       </c>
       <c r="O58" s="3">
         <v>400</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>3</v>
+      <c r="P58" s="3">
+        <v>400</v>
       </c>
       <c r="Q58" s="3" t="s">
         <v>3</v>
@@ -3388,50 +3522,53 @@
       <c r="U58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>22700</v>
+      </c>
+      <c r="E59" s="3">
         <v>21500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>4900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>4200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>5800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>6700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>4500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>900</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3447,50 +3584,53 @@
       <c r="U59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>26400</v>
+      </c>
+      <c r="E60" s="3">
         <v>24800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>7300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>7400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>8600</v>
-      </c>
-      <c r="H60" s="3">
-        <v>9700</v>
       </c>
       <c r="I60" s="3">
         <v>9700</v>
       </c>
       <c r="J60" s="3">
+        <v>9700</v>
+      </c>
+      <c r="K60" s="3">
         <v>7800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>4600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>5400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2800</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3506,8 +3646,11 @@
       <c r="U60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3536,20 +3679,20 @@
         <v>0</v>
       </c>
       <c r="L61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M61" s="3">
         <v>100</v>
       </c>
       <c r="N61" s="3">
+        <v>100</v>
+      </c>
+      <c r="O61" s="3">
         <v>200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>300</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
         <v>0</v>
       </c>
@@ -3565,16 +3708,19 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E62" s="3">
         <v>9400</v>
-      </c>
-      <c r="E62" s="3">
-        <v>100</v>
       </c>
       <c r="F62" s="3">
         <v>100</v>
@@ -3586,7 +3732,7 @@
         <v>100</v>
       </c>
       <c r="I62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J62" s="3">
         <v>0</v>
@@ -3601,14 +3747,14 @@
         <v>0</v>
       </c>
       <c r="N62" s="3">
+        <v>0</v>
+      </c>
+      <c r="O62" s="3">
         <v>7100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1500</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3624,8 +3770,11 @@
       <c r="U62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3683,8 +3832,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3742,8 +3894,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3801,50 +3956,53 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>32100</v>
+      </c>
+      <c r="E66" s="3">
         <v>34300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>7400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>7500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>8700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>9900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>9700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>7800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>12700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4700</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3860,8 +4018,11 @@
       <c r="U66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3883,8 +4044,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3942,8 +4104,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4001,8 +4166,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4037,13 +4205,13 @@
         <v>0</v>
       </c>
       <c r="N70" s="3">
-        <v>48400</v>
+        <v>0</v>
       </c>
       <c r="O70" s="3">
         <v>48400</v>
       </c>
       <c r="P70" s="3">
-        <v>0</v>
+        <v>48400</v>
       </c>
       <c r="Q70" s="3">
         <v>0</v>
@@ -4060,8 +4228,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4119,50 +4290,53 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-125800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-120300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-116000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-108200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-99700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-90800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-79100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-71300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-63500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-58300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-54400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-50300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-41900</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4178,8 +4352,11 @@
       <c r="U72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4237,8 +4414,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4296,8 +4476,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4355,50 +4538,53 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>9300</v>
+      </c>
+      <c r="E76" s="3">
         <v>13900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>16700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>23100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>30300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>37900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>48200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>54800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>60600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>37900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>41300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-49100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-40800</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4414,8 +4600,11 @@
       <c r="U76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4473,61 +4662,64 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S80" s="2" t="s">
         <v>3</v>
       </c>
@@ -4537,56 +4729,59 @@
       <c r="U80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-4300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-7800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-9200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-8900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-11700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-7900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-7700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-5200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-3900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-4100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-8400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-5400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-2900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-2700</v>
       </c>
-      <c r="R81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S81" s="3" t="s">
         <v>3</v>
       </c>
@@ -4596,8 +4791,11 @@
       <c r="U81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4619,8 +4817,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4643,31 +4842,31 @@
         <v>100</v>
       </c>
       <c r="J83" s="3">
+        <v>100</v>
+      </c>
+      <c r="K83" s="3">
         <v>300</v>
-      </c>
-      <c r="K83" s="3">
-        <v>200</v>
       </c>
       <c r="L83" s="3">
         <v>200</v>
       </c>
       <c r="M83" s="3">
+        <v>200</v>
+      </c>
+      <c r="N83" s="3">
         <v>300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>300</v>
-      </c>
-      <c r="P83" s="3">
-        <v>200</v>
       </c>
       <c r="Q83" s="3">
         <v>200</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>3</v>
+      <c r="R83" s="3">
+        <v>200</v>
       </c>
       <c r="S83" s="3" t="s">
         <v>3</v>
@@ -4678,8 +4877,11 @@
       <c r="U83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4737,8 +4939,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4796,8 +5001,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4855,8 +5063,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4914,8 +5125,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4973,56 +5187,59 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="E89" s="3">
         <v>24200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-6700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-7600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-8100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-6400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-6800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-4100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-3700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-3500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-6100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-2500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-3500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-2400</v>
       </c>
-      <c r="R89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S89" s="3" t="s">
         <v>3</v>
       </c>
@@ -5032,8 +5249,11 @@
       <c r="U89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5055,26 +5275,27 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="E91" s="3">
         <v>-100</v>
       </c>
       <c r="F91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
         <v>-200</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
       <c r="I91" s="3">
         <v>0</v>
       </c>
@@ -5091,19 +5312,19 @@
         <v>0</v>
       </c>
       <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
         <v>-100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-400</v>
-      </c>
-      <c r="P91" s="3">
-        <v>-100</v>
       </c>
       <c r="Q91" s="3">
         <v>-100</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>3</v>
+      <c r="R91" s="3">
+        <v>-100</v>
       </c>
       <c r="S91" s="3" t="s">
         <v>3</v>
@@ -5114,8 +5335,11 @@
       <c r="U91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5173,8 +5397,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5232,26 +5459,29 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="E94" s="3">
         <v>-100</v>
       </c>
       <c r="F94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>-200</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
         <v>0</v>
       </c>
@@ -5268,19 +5498,19 @@
         <v>0</v>
       </c>
       <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>-100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-400</v>
-      </c>
-      <c r="P94" s="3">
-        <v>-100</v>
       </c>
       <c r="Q94" s="3">
         <v>-100</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>3</v>
+      <c r="R94" s="3">
+        <v>-100</v>
       </c>
       <c r="S94" s="3" t="s">
         <v>3</v>
@@ -5291,8 +5521,11 @@
       <c r="U94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5314,8 +5547,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5373,8 +5607,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5432,8 +5669,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5491,8 +5731,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5550,8 +5793,11 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5571,34 +5817,34 @@
         <v>0</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>-200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>27300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>39100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>11200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>4400</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
-      <c r="R100" s="3" t="s">
-        <v>3</v>
+      <c r="R100" s="3">
+        <v>0</v>
       </c>
       <c r="S100" s="3" t="s">
         <v>3</v>
@@ -5609,8 +5855,11 @@
       <c r="U100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5668,56 +5917,59 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="E102" s="3">
         <v>24100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-6800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-7600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-8200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-6400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-7000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-3600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>23600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-3500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>33000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-3000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>7200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-2500</v>
       </c>
-      <c r="R102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S102" s="3" t="s">
         <v>3</v>
       </c>
@@ -5725,6 +5977,9 @@
         <v>3</v>
       </c>
       <c r="U102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IMNM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IMNM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="92">
   <si>
     <t>IMNM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,83 +665,84 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="22" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="23" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="T7" s="2" t="s">
         <v>3</v>
       </c>
@@ -751,20 +752,23 @@
       <c r="V7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E8" s="3">
         <v>4300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2400</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G8" s="3" t="s">
         <v>3</v>
       </c>
@@ -780,8 +784,8 @@
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L8" s="3">
-        <v>0</v>
+      <c r="L8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M8" s="3">
         <v>0</v>
@@ -813,8 +817,11 @@
       <c r="V8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -875,8 +882,11 @@
       <c r="V9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -937,8 +947,11 @@
       <c r="V10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -961,59 +974,60 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E12" s="3">
         <v>5700</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>3900</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>4200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>5200</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>5700</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>8100</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>4400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>4500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>3200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>2000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1800</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1600</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>4000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>2400</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>2200</v>
       </c>
-      <c r="S12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T12" s="3" t="s">
         <v>3</v>
       </c>
@@ -1023,8 +1037,11 @@
       <c r="V12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1085,8 +1102,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1147,8 +1167,11 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1209,8 +1232,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1230,59 +1256,60 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>8200</v>
+      </c>
+      <c r="E17" s="3">
         <v>10000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>6800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>7800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>8500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>8900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>11700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>7800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>7700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>5700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>4100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>5400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2700</v>
       </c>
-      <c r="S17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1292,20 +1319,23 @@
       <c r="V17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="E18" s="3">
         <v>-5700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-4400</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1321,30 +1351,30 @@
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L18" s="3">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="3">
         <v>-5700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-3900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-4100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-2800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-5400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-2900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-2700</v>
       </c>
-      <c r="S18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1354,8 +1384,11 @@
       <c r="V18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1378,19 +1411,20 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E20" s="3">
         <v>200</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>3</v>
+      <c r="F20" s="3">
+        <v>200</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>3</v>
@@ -1407,29 +1441,29 @@
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L20" s="3">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" s="3">
         <v>500</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>-5600</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
         <v>0</v>
       </c>
       <c r="R20" s="3">
         <v>0</v>
       </c>
-      <c r="S20" s="3" t="s">
-        <v>3</v>
+      <c r="S20" s="3">
+        <v>0</v>
       </c>
       <c r="T20" s="3" t="s">
         <v>3</v>
@@ -1440,20 +1474,23 @@
       <c r="V20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="E21" s="3">
         <v>-5500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-4200</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1469,30 +1506,30 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3">
         <v>-5100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-3700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-3800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-8200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-5000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-2700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-2600</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1502,8 +1539,11 @@
       <c r="V21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1537,8 +1577,8 @@
       <c r="M22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
+      <c r="N22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O22" s="3">
         <v>0</v>
@@ -1549,8 +1589,8 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>3</v>
+      <c r="R22" s="3">
+        <v>0</v>
       </c>
       <c r="S22" s="3" t="s">
         <v>3</v>
@@ -1564,59 +1604,62 @@
       <c r="V22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-5600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-4300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-7800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-8500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-8900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-11700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-7900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-7700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-5200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-3900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-4100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-8400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-5400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-2900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-2700</v>
       </c>
-      <c r="S23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1626,8 +1669,11 @@
       <c r="V23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1688,8 +1734,11 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1750,59 +1799,62 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-5600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-4300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-7800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-8500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-8900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-11700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-7900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-7700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-5200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-3900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-4100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-8400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-5400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-2900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-2700</v>
       </c>
-      <c r="S26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1812,59 +1864,62 @@
       <c r="V26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-5600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-4300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-7800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-9200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-8900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-11700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-7900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-7700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-5200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-3900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-4100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-8400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-5400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-2900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-2700</v>
       </c>
-      <c r="S27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1874,8 +1929,11 @@
       <c r="V27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1936,8 +1994,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1998,8 +2059,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2060,8 +2124,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2122,19 +2189,22 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="E32" s="3">
         <v>-200</v>
       </c>
-      <c r="F32" s="3" t="s">
-        <v>3</v>
+      <c r="F32" s="3">
+        <v>-200</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>3</v>
@@ -2151,29 +2221,29 @@
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L32" s="3">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M32" s="3">
         <v>-500</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>5600</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
         <v>0</v>
       </c>
       <c r="R32" s="3">
         <v>0</v>
       </c>
-      <c r="S32" s="3" t="s">
-        <v>3</v>
+      <c r="S32" s="3">
+        <v>0</v>
       </c>
       <c r="T32" s="3" t="s">
         <v>3</v>
@@ -2184,59 +2254,62 @@
       <c r="V32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-5600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-4300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-7800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-9200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-8900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-11700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-7900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-7700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-5200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-3900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-4100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-8400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-5400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-2900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-2700</v>
       </c>
-      <c r="S33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T33" s="3" t="s">
         <v>3</v>
       </c>
@@ -2246,8 +2319,11 @@
       <c r="V33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2308,59 +2384,62 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-5600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-4300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-7800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-9200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-8900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-11700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-7900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-7700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-5200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-3900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-4100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-8400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-5400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-2900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-2700</v>
       </c>
-      <c r="S35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2370,64 +2449,67 @@
       <c r="V35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="T38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2437,8 +2519,11 @@
       <c r="V38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2461,8 +2546,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2485,53 +2571,54 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>90600</v>
+      </c>
+      <c r="E41" s="3">
         <v>38400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>44400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>20300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>27100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>34600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>42900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>49200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>56200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>59800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>36300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>39800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>6700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>9800</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2547,8 +2634,11 @@
       <c r="V41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2609,32 +2699,35 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>0</v>
+      </c>
+      <c r="E43" s="3">
         <v>200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>800</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I43" s="3">
+      <c r="I43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J43" s="3">
         <v>800</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2647,8 +2740,8 @@
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O43" s="3">
-        <v>0</v>
+      <c r="O43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P43" s="3">
         <v>0</v>
@@ -2671,8 +2764,11 @@
       <c r="V43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2733,53 +2829,56 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>800</v>
+      </c>
+      <c r="E45" s="3">
         <v>900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>7400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>4900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>3000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>4800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>3100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>400</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2795,53 +2894,56 @@
       <c r="V45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>91400</v>
+      </c>
+      <c r="E46" s="3">
         <v>39500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>46500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>22600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>29200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>37600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>46300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>56600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>61200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>62800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>41100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>42900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>7500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>10200</v>
       </c>
-      <c r="Q46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2857,8 +2959,11 @@
       <c r="V46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2919,53 +3024,56 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E48" s="3">
         <v>1400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1000</v>
-      </c>
-      <c r="I48" s="3">
-        <v>900</v>
       </c>
       <c r="J48" s="3">
         <v>900</v>
       </c>
       <c r="K48" s="3">
+        <v>900</v>
+      </c>
+      <c r="L48" s="3">
         <v>1000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1800</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2981,8 +3089,11 @@
       <c r="V48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3043,8 +3154,11 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3105,8 +3219,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3167,16 +3284,19 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>200</v>
+      </c>
+      <c r="E52" s="3">
         <v>500</v>
-      </c>
-      <c r="E52" s="3">
-        <v>400</v>
       </c>
       <c r="F52" s="3">
         <v>400</v>
@@ -3188,16 +3308,16 @@
         <v>400</v>
       </c>
       <c r="I52" s="3">
+        <v>400</v>
+      </c>
+      <c r="J52" s="3">
         <v>500</v>
-      </c>
-      <c r="J52" s="3">
-        <v>400</v>
       </c>
       <c r="K52" s="3">
         <v>400</v>
       </c>
       <c r="L52" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="M52" s="3">
         <v>100</v>
@@ -3206,14 +3326,14 @@
         <v>100</v>
       </c>
       <c r="O52" s="3">
+        <v>100</v>
+      </c>
+      <c r="P52" s="3">
         <v>2800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>200</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3229,8 +3349,11 @@
       <c r="V52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3291,53 +3414,56 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>93200</v>
+      </c>
+      <c r="E54" s="3">
         <v>41400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>48100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>24000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>30500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>39000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>47700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>57900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>62600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>64100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>42600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>44500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>12000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>12200</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3353,8 +3479,11 @@
       <c r="V54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3377,8 +3506,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3401,53 +3531,54 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E57" s="3">
         <v>3700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>5300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>3100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1400</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3463,8 +3594,11 @@
       <c r="V57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3474,17 +3608,17 @@
       <c r="E58" s="3">
         <v>0</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
+      <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
+        <v>0</v>
       </c>
       <c r="J58" s="3">
         <v>0</v>
@@ -3496,19 +3630,19 @@
         <v>0</v>
       </c>
       <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3">
         <v>400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>500</v>
-      </c>
-      <c r="O58" s="3">
-        <v>400</v>
       </c>
       <c r="P58" s="3">
         <v>400</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>3</v>
+      <c r="Q58" s="3">
+        <v>400</v>
       </c>
       <c r="R58" s="3" t="s">
         <v>3</v>
@@ -3525,53 +3659,56 @@
       <c r="V58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>20300</v>
+      </c>
+      <c r="E59" s="3">
         <v>22700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>21500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>4900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>4200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>3400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>5800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>6700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>900</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3587,53 +3724,56 @@
       <c r="V59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>23100</v>
+      </c>
+      <c r="E60" s="3">
         <v>26400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>24800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>7300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>7400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>8600</v>
-      </c>
-      <c r="I60" s="3">
-        <v>9700</v>
       </c>
       <c r="J60" s="3">
         <v>9700</v>
       </c>
       <c r="K60" s="3">
+        <v>9700</v>
+      </c>
+      <c r="L60" s="3">
         <v>7800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>4600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>5400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2800</v>
       </c>
-      <c r="Q60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3649,8 +3789,11 @@
       <c r="V60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3682,20 +3825,20 @@
         <v>0</v>
       </c>
       <c r="M61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N61" s="3">
         <v>100</v>
       </c>
       <c r="O61" s="3">
+        <v>100</v>
+      </c>
+      <c r="P61" s="3">
         <v>200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>300</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
         <v>0</v>
       </c>
@@ -3711,19 +3854,22 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>64000</v>
+      </c>
+      <c r="E62" s="3">
         <v>5700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>9400</v>
-      </c>
-      <c r="F62" s="3">
-        <v>100</v>
       </c>
       <c r="G62" s="3">
         <v>100</v>
@@ -3735,7 +3881,7 @@
         <v>100</v>
       </c>
       <c r="J62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K62" s="3">
         <v>0</v>
@@ -3750,14 +3896,14 @@
         <v>0</v>
       </c>
       <c r="O62" s="3">
+        <v>0</v>
+      </c>
+      <c r="P62" s="3">
         <v>7100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1500</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3773,8 +3919,11 @@
       <c r="V62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3835,8 +3984,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3897,8 +4049,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3959,53 +4114,56 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>87100</v>
+      </c>
+      <c r="E66" s="3">
         <v>32100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>34300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>7400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>7500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>8700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>9900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>9700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>7800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>12700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>4700</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4021,8 +4179,11 @@
       <c r="V66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4045,8 +4206,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4107,8 +4269,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4169,8 +4334,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4208,13 +4376,13 @@
         <v>0</v>
       </c>
       <c r="O70" s="3">
-        <v>48400</v>
+        <v>0</v>
       </c>
       <c r="P70" s="3">
         <v>48400</v>
       </c>
       <c r="Q70" s="3">
-        <v>0</v>
+        <v>48400</v>
       </c>
       <c r="R70" s="3">
         <v>0</v>
@@ -4231,8 +4399,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4293,53 +4464,56 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-130200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-125800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-120300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-116000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-108200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-99700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-90800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-79100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-71300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-63500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-58300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-54400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-50300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-41900</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4355,8 +4529,11 @@
       <c r="V72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4417,8 +4594,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4479,8 +4659,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4541,53 +4724,56 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E76" s="3">
         <v>9300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>13900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>16700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>23100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>30300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>37900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>48200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>54800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>60600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>37900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>41300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-49100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-40800</v>
       </c>
-      <c r="Q76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4603,8 +4789,11 @@
       <c r="V76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4665,64 +4854,67 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="T80" s="2" t="s">
         <v>3</v>
       </c>
@@ -4732,59 +4924,62 @@
       <c r="V80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-5600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-4300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-7800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-9200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-8900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-11700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-7900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-7700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-5200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-3900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-4100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-8400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-5400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-2900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-2700</v>
       </c>
-      <c r="S81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T81" s="3" t="s">
         <v>3</v>
       </c>
@@ -4794,8 +4989,11 @@
       <c r="V81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4818,8 +5016,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4845,31 +5044,31 @@
         <v>100</v>
       </c>
       <c r="K83" s="3">
+        <v>100</v>
+      </c>
+      <c r="L83" s="3">
         <v>300</v>
-      </c>
-      <c r="L83" s="3">
-        <v>200</v>
       </c>
       <c r="M83" s="3">
         <v>200</v>
       </c>
       <c r="N83" s="3">
+        <v>200</v>
+      </c>
+      <c r="O83" s="3">
         <v>300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>300</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>200</v>
       </c>
       <c r="R83" s="3">
         <v>200</v>
       </c>
-      <c r="S83" s="3" t="s">
-        <v>3</v>
+      <c r="S83" s="3">
+        <v>200</v>
       </c>
       <c r="T83" s="3" t="s">
         <v>3</v>
@@ -4880,8 +5079,11 @@
       <c r="V83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4942,8 +5144,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5004,8 +5209,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5066,8 +5274,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5128,8 +5339,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5190,59 +5404,62 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-8600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-5700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>24200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-6700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-7600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-8100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-6400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-6800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-4100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-3700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-3500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-6100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-2500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-3500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-2600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-2400</v>
       </c>
-      <c r="S89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T89" s="3" t="s">
         <v>3</v>
       </c>
@@ -5252,8 +5469,11 @@
       <c r="V89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5276,29 +5496,30 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
         <v>-300</v>
-      </c>
-      <c r="E91" s="3">
-        <v>-100</v>
       </c>
       <c r="F91" s="3">
         <v>-100</v>
       </c>
       <c r="G91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
         <v>-200</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
       <c r="J91" s="3">
         <v>0</v>
       </c>
@@ -5315,19 +5536,19 @@
         <v>0</v>
       </c>
       <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
         <v>-100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-400</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>-100</v>
       </c>
       <c r="R91" s="3">
         <v>-100</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>3</v>
+      <c r="S91" s="3">
+        <v>-100</v>
       </c>
       <c r="T91" s="3" t="s">
         <v>3</v>
@@ -5338,8 +5559,11 @@
       <c r="V91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5400,8 +5624,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5462,29 +5689,32 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
         <v>-300</v>
-      </c>
-      <c r="E94" s="3">
-        <v>-100</v>
       </c>
       <c r="F94" s="3">
         <v>-100</v>
       </c>
       <c r="G94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>-200</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
         <v>0</v>
       </c>
@@ -5501,19 +5731,19 @@
         <v>0</v>
       </c>
       <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
         <v>-100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-400</v>
-      </c>
-      <c r="Q94" s="3">
-        <v>-100</v>
       </c>
       <c r="R94" s="3">
         <v>-100</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>3</v>
+      <c r="S94" s="3">
+        <v>-100</v>
       </c>
       <c r="T94" s="3" t="s">
         <v>3</v>
@@ -5524,8 +5754,11 @@
       <c r="V94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5548,8 +5781,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5610,8 +5844,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5672,8 +5909,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5734,8 +5974,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5796,13 +6039,16 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>60900</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
@@ -5820,34 +6066,34 @@
         <v>0</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>-200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>27300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>39100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>11200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>4400</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
-      <c r="S100" s="3" t="s">
-        <v>3</v>
+      <c r="S100" s="3">
+        <v>0</v>
       </c>
       <c r="T100" s="3" t="s">
         <v>3</v>
@@ -5858,8 +6104,11 @@
       <c r="V100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5920,59 +6169,62 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>52200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-6000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>24100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-6800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-7600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-8200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-6400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-7000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-3600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>23600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-3500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>33000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-3000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>7200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>1800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-2500</v>
       </c>
-      <c r="S102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T102" s="3" t="s">
         <v>3</v>
       </c>
@@ -5980,6 +6232,9 @@
         <v>3</v>
       </c>
       <c r="V102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
